--- a/bigdata2012_results.xlsx
+++ b/bigdata2012_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="528" windowWidth="22716" windowHeight="8940" activeTab="1"/>
+    <workbookView xWindow="132" yWindow="528" windowWidth="22716" windowHeight="8940" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Wordcount" sheetId="1" r:id="rId1"/>
@@ -17,39 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="56">
-  <si>
-    <t>scoobi_4</t>
-  </si>
-  <si>
-    <t>crunch_4</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="71">
   <si>
     <t>4%</t>
-  </si>
-  <si>
-    <t>scoobi_3</t>
-  </si>
-  <si>
-    <t>crunch_3</t>
-  </si>
-  <si>
-    <t>crunch_2</t>
-  </si>
-  <si>
-    <t>crunch_1</t>
-  </si>
-  <si>
-    <t>crunch_0</t>
-  </si>
-  <si>
-    <t>scoobi_2</t>
-  </si>
-  <si>
-    <t>scoobi_1</t>
-  </si>
-  <si>
-    <t>scoobi_0</t>
   </si>
   <si>
     <t>pig</t>
@@ -59,9 +29,6 @@
   </si>
   <si>
     <t>Graph:</t>
-  </si>
-  <si>
-    <t>Scoobi</t>
   </si>
   <si>
     <t>Crunch</t>
@@ -142,9 +109,6 @@
     <t xml:space="preserve">1) Fusion + Projection </t>
   </si>
   <si>
-    <t>Original</t>
-  </si>
-  <si>
     <t xml:space="preserve">2) 1 + Code Motion  </t>
   </si>
   <si>
@@ -184,7 +148,88 @@
     <t>1 + 2 +3 - Combined</t>
   </si>
   <si>
-    <t>a</t>
+    <t>crunch</t>
+  </si>
+  <si>
+    <t>spark</t>
+  </si>
+  <si>
+    <t>######### offical tpch runs:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12  21398</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14  16587</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16  17875</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18  14347</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20   7150</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22  21474</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24  16624</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26  17853</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28  14341</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30   7175</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32  21453</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34  16617</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 36  17960</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 38  14317</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40   7173</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42  11700</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 44  11762</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 46  11719</t>
+  </si>
+  <si>
+    <t>manual</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 52   7161</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 54   7158</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 56   7100</t>
+  </si>
+  <si>
+    <t>##### real data</t>
+  </si>
+  <si>
+    <t>Naïve</t>
+  </si>
+  <si>
+    <t>Hand Opt.</t>
   </si>
 </sst>
 </file>
@@ -266,7 +311,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -274,6 +319,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Heading" xfId="1"/>
@@ -323,7 +369,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Original</c:v>
+                  <c:v>Hand Opt.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -339,8 +385,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.1940347427073099E-3"/>
-                  <c:y val="-3.0985723056394458E-2"/>
+                  <c:x val="-8.1941960426038189E-3"/>
+                  <c:y val="6.0513269174686498E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -349,7 +395,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>913 s</c:v>
+                      <c:v>487 s</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -365,8 +411,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="-3.0985723056394458E-2"/>
+                  <c:x val="-1.4339560799737791E-2"/>
+                  <c:y val="-8.7634878973461647E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -375,7 +421,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>512 s</c:v>
+                      <c:v>187 s</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -397,11 +443,11 @@
               </c:layout>
               <c:tx>
                 <c:strRef>
-                  <c:f>Wordcount!$I$37</c:f>
+                  <c:f>Wordcount!$I$36</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>220 s</c:v>
+                      <c:v>187 s</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -433,16 +479,13 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Wordcount!$B$35:$B$37</c:f>
+              <c:f>Wordcount!$B$35:$B$36</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Scoobi</c:v>
+                  <c:v>Crunch</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Crunch</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>Spark</c:v>
                 </c:pt>
               </c:strCache>
@@ -450,17 +493,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Wordcount!$C$35:$C$37</c:f>
+              <c:f>Wordcount!$C$35:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -476,7 +516,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1) Fusion + Projection </c:v>
+                  <c:v>Naïve</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -491,16 +531,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Wordcount!$B$35:$B$37</c:f>
+              <c:f>Wordcount!$B$35:$B$36</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Scoobi</c:v>
+                  <c:v>Crunch</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Crunch</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>Spark</c:v>
                 </c:pt>
               </c:strCache>
@@ -508,18 +545,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Wordcount!$D$35:$D$37</c:f>
+              <c:f>Wordcount!$D$35:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.9116431101858955</c:v>
+                  <c:v>2.0285125268824569</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98096516142481172</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.062631906591154</c:v>
+                  <c:v>2.4270630829870337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -534,7 +568,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2) 1 + Code Motion  </c:v>
+                  <c:v>1) Fusion + Projection </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -550,16 +584,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Wordcount!$B$35:$B$37</c:f>
+              <c:f>Wordcount!$B$35:$B$36</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Scoobi</c:v>
+                  <c:v>Crunch</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Crunch</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>Spark</c:v>
                 </c:pt>
               </c:strCache>
@@ -567,18 +598,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Wordcount!$E$35:$E$37</c:f>
+              <c:f>Wordcount!$E$35:$E$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.83415141886709765</c:v>
+                  <c:v>2.0416010300946534</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8522226854626469</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.75396668741743977</c:v>
+                  <c:v>2.2667784337156003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -593,7 +621,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3) 2 + Opt. Split</c:v>
+                  <c:v>2) 1 + Code Motion  </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -608,16 +636,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Wordcount!$B$35:$B$37</c:f>
+              <c:f>Wordcount!$B$35:$B$36</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Scoobi</c:v>
+                  <c:v>Crunch</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Crunch</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>Spark</c:v>
                 </c:pt>
               </c:strCache>
@@ -625,18 +650,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Wordcount!$F$35:$F$37</c:f>
+              <c:f>Wordcount!$F$35:$F$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.80812972499178259</c:v>
+                  <c:v>1.6985603331369943</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.80888943898689325</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.69511547046051525</c:v>
+                  <c:v>1.5031479070431075</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -651,7 +673,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4) 3 + Opt. Automaton</c:v>
+                  <c:v>3) 2 + Opt. Split</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -667,16 +689,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Wordcount!$B$35:$B$37</c:f>
+              <c:f>Wordcount!$B$35:$B$36</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Scoobi</c:v>
+                  <c:v>Crunch</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Crunch</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>Spark</c:v>
                 </c:pt>
               </c:strCache>
@@ -684,18 +703,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Wordcount!$G$35:$G$37</c:f>
+              <c:f>Wordcount!$G$35:$G$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.7792776012563456</c:v>
+                  <c:v>1.5396627535854692</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.75108789118482422</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.55782633121270553</c:v>
+                  <c:v>1.3111701653320014</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Wordcount!$H$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4) 3 + Opt. Automaton</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Wordcount!$B$35:$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Crunch</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Spark</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Wordcount!$H$35:$H$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.4534402695779625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -710,11 +771,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="108946944"/>
-        <c:axId val="96091456"/>
+        <c:axId val="67888640"/>
+        <c:axId val="98931776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="108946944"/>
+        <c:axId val="67888640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -733,7 +794,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96091456"/>
+        <c:crossAx val="98931776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -741,7 +802,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96091456"/>
+        <c:axId val="98931776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -781,7 +842,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108946944"/>
+        <c:crossAx val="67888640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -792,10 +853,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.64734600376280405"/>
-          <c:y val="0.29973724117818606"/>
-          <c:w val="0.34036294412313506"/>
-          <c:h val="0.41972120151647713"/>
+          <c:x val="0.6657825819338955"/>
+          <c:y val="0.23307057451151938"/>
+          <c:w val="0.30514119561190139"/>
+          <c:h val="0.5209554366605893"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -853,11 +914,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>TPCH!$C$34</c:f>
+              <c:f>TPCH!$C$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Original</c:v>
+                  <c:v>Hand Opt.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -873,17 +934,17 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.1940347427073099E-3"/>
-                  <c:y val="-3.0985723056394458E-2"/>
+                  <c:x val="-1.2291052114060964E-2"/>
+                  <c:y val="-1.3560804899387577E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
                 <c:strRef>
-                  <c:f>TPCH!$I$35</c:f>
+                  <c:f>TPCH!$I$39</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>663 s</c:v>
+                      <c:v>354 s</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -899,17 +960,17 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="-3.0985723056394458E-2"/>
+                  <c:x val="-1.2291052114060964E-2"/>
+                  <c:y val="2.3476232137649459E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
                 <c:strRef>
-                  <c:f>TPCH!$I$36</c:f>
+                  <c:f>TPCH!$I$40</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>508 s</c:v>
+                      <c:v>533 s</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -931,11 +992,11 @@
               </c:layout>
               <c:tx>
                 <c:strRef>
-                  <c:f>TPCH!$I$37</c:f>
+                  <c:f>TPCH!$I$40</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>481 s</c:v>
+                      <c:v>533 s</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -967,16 +1028,13 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>TPCH!$B$35:$B$37</c:f>
+              <c:f>TPCH!$B$39:$B$40</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Scoobi</c:v>
+                  <c:v>Crunch</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Crunch</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>Spark</c:v>
                 </c:pt>
               </c:strCache>
@@ -984,17 +1042,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TPCH!$C$35:$C$37</c:f>
+              <c:f>TPCH!$C$39:$C$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1006,11 +1061,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>TPCH!$D$34</c:f>
+              <c:f>TPCH!$D$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Opt. Split</c:v>
+                  <c:v>Naïve</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1025,16 +1080,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>TPCH!$B$35:$B$37</c:f>
+              <c:f>TPCH!$B$39:$B$40</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Scoobi</c:v>
+                  <c:v>Crunch</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Crunch</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>Spark</c:v>
                 </c:pt>
               </c:strCache>
@@ -1042,18 +1094,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TPCH!$D$35:$D$37</c:f>
+              <c:f>TPCH!$D$39:$D$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.93895386843402084</c:v>
+                  <c:v>2.3722693032015063</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94294767087162734</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.90112657297057319</c:v>
+                  <c:v>1.7475194254326145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1064,11 +1113,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>TPCH!$E$34</c:f>
+              <c:f>TPCH!$E$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Projection</c:v>
+                  <c:v>Opt. Split</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1084,16 +1133,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>TPCH!$B$35:$B$37</c:f>
+              <c:f>TPCH!$B$39:$B$40</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Scoobi</c:v>
+                  <c:v>Crunch</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Crunch</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>Spark</c:v>
                 </c:pt>
               </c:strCache>
@@ -1101,18 +1147,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TPCH!$E$35:$E$37</c:f>
+              <c:f>TPCH!$E$39:$E$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.90678647933784551</c:v>
+                  <c:v>1.971553672316384</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.84356365497018482</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.58438891740777232</c:v>
+                  <c:v>1.5885749677806833</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1123,11 +1166,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>TPCH!$F$34</c:f>
+              <c:f>TPCH!$F$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Fusion</c:v>
+                  <c:v>Projection</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1142,16 +1185,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>TPCH!$B$35:$B$37</c:f>
+              <c:f>TPCH!$B$39:$B$40</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Scoobi</c:v>
+                  <c:v>Crunch</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Crunch</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>Spark</c:v>
                 </c:pt>
               </c:strCache>
@@ -1159,18 +1199,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TPCH!$F$35:$F$37</c:f>
+              <c:f>TPCH!$F$39:$F$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.87961743083282218</c:v>
+                  <c:v>1.8223634651600753</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86399149823863963</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.88593448672946995</c:v>
+                  <c:v>1.2918757272806896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1181,11 +1218,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>TPCH!$G$34</c:f>
+              <c:f>TPCH!$G$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Combined</c:v>
+                  <c:v>Fusion</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1201,16 +1238,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>TPCH!$B$35:$B$37</c:f>
+              <c:f>TPCH!$B$39:$B$40</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Scoobi</c:v>
+                  <c:v>Crunch</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Crunch</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>Spark</c:v>
                 </c:pt>
               </c:strCache>
@@ -1218,18 +1252,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TPCH!$G$35:$G$37</c:f>
+              <c:f>TPCH!$G$39:$G$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.72314020496213527</c:v>
+                  <c:v>1.796111111111111</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.62815946050551363</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.40350597277911121</c:v>
+                  <c:v>1.5354037111647751</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TPCH!$H$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Combined</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TPCH!$B$39:$B$40</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Crunch</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Spark</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TPCH!$H$39:$H$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.0492278719397363</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1244,16 +1320,17 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="120242176"/>
-        <c:axId val="108865216"/>
+        <c:axId val="112828416"/>
+        <c:axId val="98934080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="120242176"/>
+        <c:axId val="112828416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1267,7 +1344,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108865216"/>
+        <c:crossAx val="98934080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1275,7 +1352,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108865216"/>
+        <c:axId val="98934080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1318,7 +1395,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120242176"/>
+        <c:crossAx val="112828416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1329,10 +1406,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.7149082623286811"/>
-          <c:y val="0.33859964937558334"/>
-          <c:w val="0.27280059484423091"/>
-          <c:h val="0.37350438990286849"/>
+          <c:x val="0.76612095685679404"/>
+          <c:y val="0.14971070282881307"/>
+          <c:w val="0.1849642043269665"/>
+          <c:h val="0.56299212598425197"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1510,11 +1587,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="41329152"/>
-        <c:axId val="108867520"/>
+        <c:axId val="108130304"/>
+        <c:axId val="111658688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="41329152"/>
+        <c:axId val="108130304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1537,6 +1614,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1553,7 +1631,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108867520"/>
+        <c:crossAx val="111658688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1561,7 +1639,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108867520"/>
+        <c:axId val="111658688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1587,6 +1665,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1603,13 +1682,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41329152"/>
+        <c:crossAx val="108130304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1669,7 +1749,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Pig</c:v>
+                  <c:v>Hand Opt.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1685,8 +1765,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.0485086856768275E-3"/>
-                  <c:y val="-3.0985723056394458E-2"/>
+                  <c:x val="-6.145526057030482E-3"/>
+                  <c:y val="-1.3566637503646057E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1695,7 +1775,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>665 s</c:v>
+                      <c:v>487 s</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -1711,8 +1791,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.1940347427073099E-3"/>
-                  <c:y val="-3.0985723056394458E-2"/>
+                  <c:x val="-6.1455260570305566E-3"/>
+                  <c:y val="2.347623213765014E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1721,7 +1801,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>437 s</c:v>
+                      <c:v>354 s</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -1743,11 +1823,11 @@
               </c:layout>
               <c:tx>
                 <c:strRef>
-                  <c:f>Wordcount!$I$37</c:f>
+                  <c:f>Wordcount!$I$36</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>220 s</c:v>
+                      <c:v>187 s</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -1816,7 +1896,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Scoobi</c:v>
+                  <c:v>Pig</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1843,10 +1923,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.0699863352012737</c:v>
+                  <c:v>2.3964802816322619</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0964318389752972</c:v>
+                  <c:v>1.6062241054613937</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1888,10 +1968,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.57817393157571428</c:v>
+                  <c:v>1.4534402695779625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.73007014333638298</c:v>
+                  <c:v>1.0492278719397363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1933,10 +2013,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.18423157446061655</c:v>
+                  <c:v>0.3840184649945893</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44348124428179314</c:v>
+                  <c:v>1.5051035781544257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1951,11 +2031,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="120243712"/>
-        <c:axId val="108869824"/>
+        <c:axId val="112829952"/>
+        <c:axId val="111660992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="120243712"/>
+        <c:axId val="112829952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1974,7 +2054,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108869824"/>
+        <c:crossAx val="111660992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1982,7 +2062,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108869824"/>
+        <c:axId val="111660992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2022,7 +2102,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120243712"/>
+        <c:crossAx val="112829952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2033,10 +2113,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.83171178547371849"/>
+          <c:x val="0.82351775073101108"/>
           <c:y val="0.272976086322543"/>
-          <c:w val="0.14780312766951328"/>
-          <c:h val="0.29637328667249929"/>
+          <c:w val="0.17648224926898887"/>
+          <c:h val="0.37532808398950129"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2109,22 +2189,22 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>210312</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:colOff>309372</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
+          <a:graphicFrameLocks noChangeAspect="1"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2503,84 +2583,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH42"/>
+  <dimension ref="A1:AH188"/>
   <sheetViews>
-    <sheetView topLeftCell="B24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="22" width="8.59765625" customWidth="1"/>
+    <col min="2" max="7" width="8.59765625" customWidth="1"/>
+    <col min="8" max="8" width="25.19921875" customWidth="1"/>
+    <col min="9" max="22" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>221.67</v>
+        <v>186.91</v>
       </c>
       <c r="D3">
-        <v>1.19</v>
+        <v>59</v>
       </c>
       <c r="E3">
-        <v>6.52</v>
+        <v>5.67</v>
       </c>
       <c r="F3">
-        <v>829968</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="J3" t="s">
-        <v>7</v>
+        <v>25.05</v>
+      </c>
+      <c r="G3">
+        <v>8139952</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>511.23</v>
+        <v>487.26</v>
       </c>
       <c r="L3">
-        <v>1.03</v>
+        <v>20</v>
       </c>
       <c r="M3">
+        <v>0.75</v>
+      </c>
+      <c r="N3">
         <v>5.01</v>
       </c>
-      <c r="N3">
-        <v>480224</v>
-      </c>
-      <c r="R3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S3">
-        <v>919.52</v>
-      </c>
-      <c r="T3">
-        <v>4.04</v>
-      </c>
-      <c r="U3">
-        <v>13.56</v>
-      </c>
-      <c r="V3">
-        <v>977472</v>
+      <c r="O3">
+        <v>392400</v>
+      </c>
+      <c r="P3" s="7">
+        <v>0.01</v>
       </c>
       <c r="W3" s="1"/>
       <c r="Z3" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
@@ -2588,231 +2669,275 @@
       <c r="AH3" s="5"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>218.95</v>
+        <v>184.53</v>
       </c>
       <c r="D4">
-        <v>1.19</v>
+        <v>64</v>
       </c>
       <c r="E4">
-        <v>6.53</v>
+        <v>5.64</v>
       </c>
       <c r="F4">
-        <v>829888</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="J4" t="s">
-        <v>7</v>
+        <v>24.93</v>
+      </c>
+      <c r="G4">
+        <v>8000512</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>510.13</v>
+        <v>486.54</v>
       </c>
       <c r="L4">
-        <v>0.82</v>
+        <v>21</v>
       </c>
       <c r="M4">
-        <v>5.07</v>
+        <v>0.67</v>
       </c>
       <c r="N4">
-        <v>571648</v>
-      </c>
-      <c r="R4" t="s">
-        <v>10</v>
-      </c>
-      <c r="S4">
-        <v>920.31</v>
-      </c>
-      <c r="T4">
-        <v>4.18</v>
-      </c>
-      <c r="U4">
-        <v>13.43</v>
-      </c>
-      <c r="V4">
-        <v>942432</v>
+        <v>5.24</v>
+      </c>
+      <c r="O4">
+        <v>473408</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0.01</v>
       </c>
       <c r="W4" s="1"/>
       <c r="Z4" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>665.79</v>
-      </c>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
+        <v>1166.42</v>
+      </c>
+      <c r="AB4">
+        <v>23</v>
+      </c>
+      <c r="AC4">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="AD4">
+        <v>12.01</v>
+      </c>
+      <c r="AE4">
+        <v>797824</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>0.01</v>
+      </c>
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>217.99</v>
+        <v>189.25</v>
       </c>
       <c r="D5">
-        <v>1.1399999999999999</v>
+        <v>69</v>
       </c>
       <c r="E5">
-        <v>6.44</v>
+        <v>5.76</v>
       </c>
       <c r="F5">
-        <v>818624</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="J5" t="s">
-        <v>7</v>
+        <v>24.82</v>
+      </c>
+      <c r="G5">
+        <v>8150960</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>513.72</v>
+        <v>486.26</v>
       </c>
       <c r="L5">
-        <v>0.77</v>
+        <v>22</v>
       </c>
       <c r="M5">
-        <v>5.16</v>
+        <v>0.66</v>
       </c>
       <c r="N5">
-        <v>471440</v>
-      </c>
-      <c r="R5" t="s">
-        <v>10</v>
-      </c>
-      <c r="S5">
-        <v>898.27</v>
-      </c>
-      <c r="T5">
-        <v>4.04</v>
-      </c>
-      <c r="U5">
-        <v>13.72</v>
-      </c>
-      <c r="V5">
-        <v>1003840</v>
+        <v>4.97</v>
+      </c>
+      <c r="O5">
+        <v>465072</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0.01</v>
       </c>
       <c r="W5" s="1"/>
       <c r="Z5" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>663.66</v>
-      </c>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
+        <v>1166.25</v>
+      </c>
+      <c r="AB5">
+        <v>24</v>
+      </c>
+      <c r="AC5">
+        <v>1.65</v>
+      </c>
+      <c r="AD5">
+        <v>12.35</v>
+      </c>
+      <c r="AE5">
+        <v>801760</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>0.01</v>
+      </c>
       <c r="AG5" s="5"/>
       <c r="AH5" s="5"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>233.18</v>
+        <v>458.18</v>
       </c>
       <c r="D6">
-        <v>1.1100000000000001</v>
+        <v>55</v>
       </c>
       <c r="E6">
-        <v>6.43</v>
+        <v>2.1</v>
       </c>
       <c r="F6">
-        <v>801520</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="J6" t="s">
-        <v>6</v>
+        <v>11.84</v>
+      </c>
+      <c r="G6">
+        <v>1429776</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>496</v>
+        <v>928.45</v>
       </c>
       <c r="L6">
-        <v>0.89</v>
+        <v>5</v>
       </c>
       <c r="M6">
-        <v>5.17</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="N6">
-        <v>569264</v>
-      </c>
-      <c r="R6" t="s">
-        <v>9</v>
-      </c>
-      <c r="S6">
-        <v>831.02</v>
-      </c>
-      <c r="T6">
-        <v>4.26</v>
-      </c>
-      <c r="U6">
-        <v>13.3</v>
-      </c>
-      <c r="V6">
-        <v>939760</v>
+        <v>5.82</v>
+      </c>
+      <c r="O6">
+        <v>476752</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0</v>
       </c>
       <c r="W6" s="1"/>
       <c r="Z6" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>669.13</v>
-      </c>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
+        <v>1103.76</v>
+      </c>
+      <c r="AB6">
+        <v>58</v>
+      </c>
+      <c r="AC6">
+        <v>1.73</v>
+      </c>
+      <c r="AD6">
+        <v>11.18</v>
+      </c>
+      <c r="AE6">
+        <v>615904</v>
+      </c>
+      <c r="AF6" s="7">
+        <v>0.01</v>
+      </c>
       <c r="AG6" s="5"/>
       <c r="AH6" s="5"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>232.6</v>
+        <v>449.52</v>
       </c>
       <c r="D7">
-        <v>1.1499999999999999</v>
+        <v>60</v>
       </c>
       <c r="E7">
-        <v>6.33</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="F7">
-        <v>823184</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="J7" t="s">
-        <v>6</v>
+        <v>11.83</v>
+      </c>
+      <c r="G7">
+        <v>1448112</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="I7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>504.31</v>
+        <v>994.82</v>
       </c>
       <c r="L7">
-        <v>0.86</v>
+        <v>10</v>
       </c>
       <c r="M7">
-        <v>5.05</v>
+        <v>1.23</v>
       </c>
       <c r="N7">
-        <v>562512</v>
-      </c>
-      <c r="R7" t="s">
-        <v>9</v>
-      </c>
-      <c r="S7">
-        <v>824.84</v>
-      </c>
-      <c r="T7">
-        <v>4.16</v>
-      </c>
-      <c r="U7">
-        <v>12.89</v>
-      </c>
-      <c r="V7">
-        <v>1120144</v>
+        <v>6.21</v>
+      </c>
+      <c r="O7">
+        <v>359408</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0</v>
       </c>
       <c r="W7" s="1"/>
       <c r="AD7" s="5"/>
@@ -2822,51 +2947,53 @@
       <c r="AH7" s="5"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>234.08</v>
+        <v>453.13</v>
       </c>
       <c r="D8">
-        <v>1.1599999999999999</v>
+        <v>65</v>
       </c>
       <c r="E8">
-        <v>6.32</v>
+        <v>2.06</v>
       </c>
       <c r="F8">
-        <v>802384</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="J8" t="s">
-        <v>6</v>
+        <v>11.64</v>
+      </c>
+      <c r="G8">
+        <v>1437520</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>505.55</v>
+        <v>1038.48</v>
       </c>
       <c r="L8">
-        <v>0.92</v>
+        <v>15</v>
       </c>
       <c r="M8">
-        <v>4.9400000000000004</v>
+        <v>1.22</v>
       </c>
       <c r="N8">
-        <v>481808</v>
-      </c>
-      <c r="R8" t="s">
-        <v>9</v>
-      </c>
-      <c r="S8">
-        <v>840.31</v>
-      </c>
-      <c r="T8">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="U8">
-        <v>13.81</v>
-      </c>
-      <c r="V8">
-        <v>1010032</v>
+        <v>6.48</v>
+      </c>
+      <c r="O8">
+        <v>478384</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0</v>
       </c>
       <c r="W8" s="1"/>
       <c r="AD8" s="5"/>
@@ -2876,51 +3003,53 @@
       <c r="AH8" s="5"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9">
-        <v>166.3</v>
+        <v>423.19</v>
       </c>
       <c r="D9">
-        <v>1.1499999999999999</v>
+        <v>56</v>
       </c>
       <c r="E9">
-        <v>6.17</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="F9">
-        <v>810384</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="J9" t="s">
-        <v>5</v>
+        <v>11.29</v>
+      </c>
+      <c r="G9">
+        <v>1326112</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="I9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
       </c>
       <c r="K9">
-        <v>434.49</v>
+        <v>960.91</v>
       </c>
       <c r="L9">
-        <v>0.98</v>
+        <v>6</v>
       </c>
       <c r="M9">
-        <v>5.0999999999999996</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="N9">
-        <v>476960</v>
-      </c>
-      <c r="R9" t="s">
-        <v>8</v>
-      </c>
-      <c r="S9">
-        <v>753.53</v>
-      </c>
-      <c r="T9">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="U9">
-        <v>12.91</v>
-      </c>
-      <c r="V9">
-        <v>1109264</v>
+        <v>6.12</v>
+      </c>
+      <c r="O9">
+        <v>459392</v>
+      </c>
+      <c r="P9" s="7">
+        <v>0</v>
       </c>
       <c r="W9" s="1"/>
       <c r="AD9" s="5"/>
@@ -2930,51 +3059,53 @@
       <c r="AH9" s="5"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10">
-        <v>163.44</v>
+        <v>422.08</v>
       </c>
       <c r="D10">
-        <v>1.17</v>
+        <v>61</v>
       </c>
       <c r="E10">
-        <v>6.19</v>
+        <v>2.09</v>
       </c>
       <c r="F10">
-        <v>807584</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="J10" t="s">
-        <v>5</v>
+        <v>11.4</v>
+      </c>
+      <c r="G10">
+        <v>1335424</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="I10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
       </c>
       <c r="K10">
-        <v>435.56</v>
+        <v>985.64</v>
       </c>
       <c r="L10">
-        <v>0.8</v>
+        <v>11</v>
       </c>
       <c r="M10">
-        <v>4.97</v>
+        <v>1.06</v>
       </c>
       <c r="N10">
-        <v>566528</v>
-      </c>
-      <c r="R10" t="s">
-        <v>8</v>
-      </c>
-      <c r="S10">
-        <v>757.74</v>
-      </c>
-      <c r="T10">
-        <v>4.42</v>
-      </c>
-      <c r="U10">
-        <v>13.14</v>
-      </c>
-      <c r="V10">
-        <v>984080</v>
+        <v>6.55</v>
+      </c>
+      <c r="O10">
+        <v>372640</v>
+      </c>
+      <c r="P10" s="7">
+        <v>0</v>
       </c>
       <c r="W10" s="1"/>
       <c r="AD10" s="5"/>
@@ -2984,51 +3115,53 @@
       <c r="AH10" s="5"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11">
-        <v>166.83</v>
+        <v>425.69</v>
       </c>
       <c r="D11">
-        <v>1.17</v>
+        <v>66</v>
       </c>
       <c r="E11">
-        <v>6.25</v>
+        <v>1.98</v>
       </c>
       <c r="F11">
-        <v>806832</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="J11" t="s">
-        <v>5</v>
+        <v>11.33</v>
+      </c>
+      <c r="G11">
+        <v>1228992</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
       </c>
       <c r="K11">
-        <v>438.18</v>
+        <v>1034.31</v>
       </c>
       <c r="L11">
-        <v>0.83</v>
+        <v>16</v>
       </c>
       <c r="M11">
-        <v>4.9800000000000004</v>
+        <v>1.23</v>
       </c>
       <c r="N11">
-        <v>562944</v>
-      </c>
-      <c r="R11" t="s">
-        <v>8</v>
-      </c>
-      <c r="S11">
-        <v>772.72</v>
-      </c>
-      <c r="T11">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="U11">
-        <v>13.52</v>
-      </c>
-      <c r="V11">
-        <v>1149712</v>
+        <v>6.28</v>
+      </c>
+      <c r="O11">
+        <v>466800</v>
+      </c>
+      <c r="P11" s="7">
+        <v>0</v>
       </c>
       <c r="W11" s="1"/>
       <c r="AD11" s="5"/>
@@ -3038,51 +3171,53 @@
       <c r="AH11" s="5"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
       <c r="B12">
         <v>3</v>
       </c>
       <c r="C12">
-        <v>149.84</v>
+        <v>285.36</v>
       </c>
       <c r="D12">
+        <v>57</v>
+      </c>
+      <c r="E12">
+        <v>1.84</v>
+      </c>
+      <c r="F12">
+        <v>10.63</v>
+      </c>
+      <c r="G12">
+        <v>1397520</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="I12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>805.29</v>
+      </c>
+      <c r="L12">
+        <v>7</v>
+      </c>
+      <c r="M12">
         <v>1.05</v>
       </c>
-      <c r="E12">
-        <v>6.14</v>
-      </c>
-      <c r="F12">
-        <v>833296</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="J12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12">
-        <v>414.01</v>
-      </c>
-      <c r="L12">
-        <v>0.79</v>
-      </c>
-      <c r="M12">
-        <v>5.16</v>
-      </c>
       <c r="N12">
-        <v>498352</v>
-      </c>
-      <c r="R12" t="s">
-        <v>3</v>
-      </c>
-      <c r="S12">
-        <v>755.74</v>
-      </c>
-      <c r="T12">
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="U12">
-        <v>13.48</v>
-      </c>
-      <c r="V12">
-        <v>1089936</v>
+        <v>6.19</v>
+      </c>
+      <c r="O12">
+        <v>476928</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0</v>
       </c>
       <c r="W12" s="1"/>
       <c r="AD12" s="5"/>
@@ -3092,51 +3227,53 @@
       <c r="AH12" s="5"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13">
-        <v>153.6</v>
+        <v>276.05</v>
       </c>
       <c r="D13">
-        <v>1.1599999999999999</v>
+        <v>62</v>
       </c>
       <c r="E13">
-        <v>6.2</v>
+        <v>1.81</v>
       </c>
       <c r="F13">
-        <v>813904</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="J13" t="s">
-        <v>4</v>
+        <v>10.63</v>
+      </c>
+      <c r="G13">
+        <v>1407632</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="I13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
       </c>
       <c r="K13">
-        <v>408.74</v>
+        <v>816.43</v>
       </c>
       <c r="L13">
-        <v>0.82</v>
+        <v>12</v>
       </c>
       <c r="M13">
-        <v>4.93</v>
+        <v>1.08</v>
       </c>
       <c r="N13">
-        <v>571200</v>
-      </c>
-      <c r="R13" t="s">
-        <v>3</v>
-      </c>
-      <c r="S13">
-        <v>725.72</v>
-      </c>
-      <c r="T13">
-        <v>4.17</v>
-      </c>
-      <c r="U13">
-        <v>12.73</v>
-      </c>
-      <c r="V13">
-        <v>962864</v>
+        <v>6.28</v>
+      </c>
+      <c r="O13">
+        <v>361120</v>
+      </c>
+      <c r="P13" s="7">
+        <v>0</v>
       </c>
       <c r="W13" s="1"/>
       <c r="AD13" s="5"/>
@@ -3146,51 +3283,53 @@
       <c r="AH13" s="5"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14">
-        <v>154.37</v>
+        <v>281.39</v>
       </c>
       <c r="D14">
-        <v>1.1200000000000001</v>
+        <v>67</v>
       </c>
       <c r="E14">
-        <v>6.07</v>
+        <v>1.84</v>
       </c>
       <c r="F14">
-        <v>830704</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="J14" t="s">
-        <v>4</v>
+        <v>10.7</v>
+      </c>
+      <c r="G14">
+        <v>1395408</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="I14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
       </c>
       <c r="K14">
-        <v>418.96</v>
+        <v>858.28</v>
       </c>
       <c r="L14">
-        <v>0.84</v>
+        <v>17</v>
       </c>
       <c r="M14">
-        <v>5.12</v>
+        <v>1.21</v>
       </c>
       <c r="N14">
-        <v>475648</v>
-      </c>
-      <c r="R14" t="s">
-        <v>3</v>
-      </c>
-      <c r="S14">
-        <v>731.28</v>
-      </c>
-      <c r="T14">
-        <v>4</v>
-      </c>
-      <c r="U14">
-        <v>12.82</v>
-      </c>
-      <c r="V14">
-        <v>1122320</v>
+        <v>6.35</v>
+      </c>
+      <c r="O14">
+        <v>579440</v>
+      </c>
+      <c r="P14" s="7">
+        <v>0</v>
       </c>
       <c r="W14" s="1"/>
       <c r="AD14" s="5"/>
@@ -3200,51 +3339,53 @@
       <c r="AH14" s="5"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
       <c r="B15">
         <v>4</v>
       </c>
       <c r="C15">
-        <v>122.78</v>
+        <v>245.14</v>
       </c>
       <c r="D15">
-        <v>5.98</v>
+        <v>58</v>
       </c>
       <c r="E15">
-        <v>12.09</v>
+        <v>1.92</v>
       </c>
       <c r="F15">
-        <v>3239648</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="J15" t="s">
-        <v>1</v>
+        <v>10.33</v>
+      </c>
+      <c r="G15">
+        <v>1377344</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="I15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
       </c>
       <c r="K15">
-        <v>379.22</v>
+        <v>763.55</v>
       </c>
       <c r="L15">
-        <v>0.85</v>
+        <v>8</v>
       </c>
       <c r="M15">
-        <v>5.72</v>
+        <v>1.05</v>
       </c>
       <c r="N15">
-        <v>577264</v>
-      </c>
-      <c r="R15" t="s">
+        <v>5.92</v>
+      </c>
+      <c r="O15">
+        <v>596864</v>
+      </c>
+      <c r="P15" s="7">
         <v>0</v>
-      </c>
-      <c r="S15">
-        <v>722.51</v>
-      </c>
-      <c r="T15">
-        <v>4.17</v>
-      </c>
-      <c r="U15">
-        <v>12.96</v>
-      </c>
-      <c r="V15">
-        <v>976896</v>
       </c>
       <c r="W15" s="1"/>
       <c r="AD15" s="5"/>
@@ -3254,51 +3395,53 @@
       <c r="AH15" s="5"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
       <c r="B16">
         <v>4</v>
       </c>
       <c r="C16">
-        <v>122.64</v>
+        <v>245.56</v>
       </c>
       <c r="D16">
-        <v>6.13</v>
+        <v>63</v>
       </c>
       <c r="E16">
-        <v>12.54</v>
+        <v>1.88</v>
       </c>
       <c r="F16">
-        <v>3248944</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="J16" t="s">
-        <v>1</v>
+        <v>10.5</v>
+      </c>
+      <c r="G16">
+        <v>1388512</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="I16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
       </c>
       <c r="K16">
-        <v>378.59</v>
+        <v>710.99</v>
       </c>
       <c r="L16">
-        <v>0.96</v>
+        <v>13</v>
       </c>
       <c r="M16">
-        <v>6.08</v>
+        <v>1.02</v>
       </c>
       <c r="N16">
-        <v>687440</v>
-      </c>
-      <c r="R16" t="s">
+        <v>5.98</v>
+      </c>
+      <c r="O16">
+        <v>475680</v>
+      </c>
+      <c r="P16" s="7">
         <v>0</v>
-      </c>
-      <c r="S16">
-        <v>705.44</v>
-      </c>
-      <c r="T16">
-        <v>4.09</v>
-      </c>
-      <c r="U16">
-        <v>12.81</v>
-      </c>
-      <c r="V16">
-        <v>1098912</v>
       </c>
       <c r="W16" s="1"/>
       <c r="AD16" s="5"/>
@@ -3307,52 +3450,54 @@
       <c r="AG16" s="5"/>
       <c r="AH16" s="5"/>
     </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
       <c r="B17">
         <v>4</v>
       </c>
       <c r="C17">
-        <v>121.97</v>
+        <v>244.46</v>
       </c>
       <c r="D17">
-        <v>5.87</v>
+        <v>68</v>
       </c>
       <c r="E17">
-        <v>12.3</v>
+        <v>1.89</v>
       </c>
       <c r="F17">
-        <v>3062784</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="J17" t="s">
-        <v>1</v>
+        <v>10.75</v>
+      </c>
+      <c r="G17">
+        <v>1412784</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="I17" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
       </c>
       <c r="K17">
-        <v>395.17</v>
+        <v>773.46</v>
       </c>
       <c r="L17">
-        <v>0.83</v>
+        <v>18</v>
       </c>
       <c r="M17">
-        <v>6.16</v>
+        <v>1.02</v>
       </c>
       <c r="N17">
-        <v>500400</v>
-      </c>
-      <c r="R17" t="s">
+        <v>5.98</v>
+      </c>
+      <c r="O17">
+        <v>473296</v>
+      </c>
+      <c r="P17" s="7">
         <v>0</v>
-      </c>
-      <c r="S17">
-        <v>705.79</v>
-      </c>
-      <c r="T17">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="U17">
-        <v>13.27</v>
-      </c>
-      <c r="V17">
-        <v>873888</v>
       </c>
       <c r="W17" s="1"/>
       <c r="AD17" s="5"/>
@@ -3361,22 +3506,167 @@
       <c r="AG17" s="5"/>
       <c r="AH17" s="5"/>
     </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>186.91</v>
+      </c>
+      <c r="D18">
+        <v>59</v>
+      </c>
+      <c r="E18">
+        <v>5.67</v>
+      </c>
+      <c r="F18">
+        <v>25.05</v>
+      </c>
+      <c r="G18">
+        <v>8139952</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="I18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>711.5</v>
+      </c>
+      <c r="L18">
+        <v>9</v>
+      </c>
+      <c r="M18">
+        <v>1.04</v>
+      </c>
+      <c r="N18">
+        <v>7.48</v>
+      </c>
+      <c r="O18">
+        <v>567264</v>
+      </c>
+      <c r="P18" s="7">
+        <v>0.01</v>
+      </c>
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
     </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="N19" s="1"/>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>184.53</v>
+      </c>
+      <c r="D19">
+        <v>64</v>
+      </c>
+      <c r="E19">
+        <v>5.64</v>
+      </c>
+      <c r="F19">
+        <v>24.93</v>
+      </c>
+      <c r="G19">
+        <v>8000512</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="I19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>680.28</v>
+      </c>
+      <c r="L19">
+        <v>14</v>
+      </c>
+      <c r="M19">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="N19">
+        <v>7.28</v>
+      </c>
+      <c r="O19">
+        <v>618592</v>
+      </c>
+      <c r="P19" s="7">
+        <v>0.01</v>
+      </c>
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
       <c r="AG19" s="5"/>
       <c r="AH19" s="5"/>
     </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>189.25</v>
+      </c>
+      <c r="D20">
+        <v>69</v>
+      </c>
+      <c r="E20">
+        <v>5.76</v>
+      </c>
+      <c r="F20">
+        <v>24.82</v>
+      </c>
+      <c r="G20">
+        <v>8150960</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>730.33</v>
+      </c>
+      <c r="L20">
+        <v>19</v>
+      </c>
+      <c r="M20">
+        <v>1.05</v>
+      </c>
+      <c r="N20">
+        <v>7.08</v>
+      </c>
+      <c r="O20">
+        <v>648576</v>
+      </c>
+      <c r="P20" s="7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>0</v>
       </c>
@@ -3392,6 +3682,9 @@
       <c r="G21">
         <v>4</v>
       </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
       <c r="K21">
         <v>0</v>
       </c>
@@ -3407,190 +3700,148 @@
       <c r="O21">
         <v>4</v>
       </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>1</v>
-      </c>
-      <c r="U21">
+      <c r="P21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>2</v>
-      </c>
-      <c r="V21">
-        <v>3</v>
-      </c>
-      <c r="W21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>12</v>
       </c>
       <c r="C22">
         <f>AVERAGE(C3:C5)</f>
-        <v>219.53666666666666</v>
+        <v>186.89666666666668</v>
       </c>
       <c r="D22">
         <f>AVERAGE(C6:C8)</f>
-        <v>233.28666666666666</v>
+        <v>453.60999999999996</v>
       </c>
       <c r="E22">
         <f>AVERAGE(C9:C11)</f>
-        <v>165.52333333333334</v>
+        <v>423.65333333333336</v>
       </c>
       <c r="F22">
         <f>AVERAGE(C12:C14)</f>
-        <v>152.60333333333332</v>
+        <v>280.93333333333334</v>
       </c>
       <c r="G22">
         <f>AVERAGE(C15:C17)</f>
-        <v>122.46333333333332</v>
+        <v>245.05333333333331</v>
+      </c>
+      <c r="H22">
+        <f>AVERAGE(C18:C20)</f>
+        <v>186.89666666666668</v>
       </c>
       <c r="J22" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K22">
         <f>AVERAGE(K3:K5)</f>
-        <v>511.69333333333333</v>
+        <v>486.68666666666667</v>
       </c>
       <c r="L22">
         <f>AVERAGE(K6:K8)</f>
-        <v>501.95333333333332</v>
+        <v>987.25</v>
       </c>
       <c r="M22">
         <f>AVERAGE(K9:K11)</f>
-        <v>436.07666666666665</v>
+        <v>993.61999999999989</v>
       </c>
       <c r="N22">
         <f>AVERAGE(K12:K14)</f>
-        <v>413.90333333333336</v>
+        <v>826.66666666666663</v>
       </c>
       <c r="O22">
         <f>AVERAGE(K15:K17)</f>
-        <v>384.32666666666665</v>
-      </c>
-      <c r="R22" t="s">
-        <v>12</v>
-      </c>
-      <c r="S22">
-        <f>AVERAGE(S3:S5)</f>
-        <v>912.69999999999993</v>
-      </c>
-      <c r="T22">
-        <f>AVERAGE(S6:S8)</f>
-        <v>832.05666666666673</v>
-      </c>
-      <c r="U22">
-        <f>AVERAGE(S9:S11)</f>
-        <v>761.32999999999993</v>
-      </c>
-      <c r="V22">
-        <f>AVERAGE(S12:S14)</f>
-        <v>737.57999999999993</v>
-      </c>
-      <c r="W22">
-        <f>AVERAGE(S15:S17)</f>
-        <v>711.24666666666656</v>
+        <v>749.33333333333337</v>
+      </c>
+      <c r="P22">
+        <f>AVERAGE(K18:K20)</f>
+        <v>707.37</v>
       </c>
       <c r="Z22" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AA22">
         <f>AVERAGE(AA3:AA5)</f>
-        <v>664.72499999999991</v>
-      </c>
-    </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
+        <v>1166.335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C23">
         <f>STDEV(C3:C5)</f>
-        <v>1.9088565512718079</v>
+        <v>2.3600282484185078</v>
       </c>
       <c r="D23">
         <f>STDEV(C6:C8)</f>
-        <v>0.74574347689627596</v>
+        <v>4.349908045005102</v>
       </c>
       <c r="E23">
         <f>STDEV(C9:C11)</f>
-        <v>1.8235770708509589</v>
+        <v>1.8490628256858539</v>
       </c>
       <c r="F23">
         <f>STDEV(C12:C14)</f>
-        <v>2.4238880612217484</v>
+        <v>4.6717698288050675</v>
       </c>
       <c r="G23">
         <f>STDEV(C15:C17)</f>
-        <v>0.43293571501244194</v>
+        <v>0.55509758901775874</v>
+      </c>
+      <c r="H23">
+        <f>STDEV(C18:C20)</f>
+        <v>2.3600282484185078</v>
       </c>
       <c r="J23" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K23">
         <f>STDEV(K3:K5)</f>
-        <v>1.839302403992717</v>
+        <v>0.51588112325741187</v>
       </c>
       <c r="L23">
         <f>STDEV(K6:K8)</f>
-        <v>5.1928829500898033</v>
+        <v>55.404231787833666</v>
       </c>
       <c r="M23">
         <f>STDEV(K9:K11)</f>
-        <v>1.8984818496191456</v>
+        <v>37.345017070554391</v>
       </c>
       <c r="N23">
         <f>STDEV(K12:K14)</f>
-        <v>5.1108348959180026</v>
+        <v>27.938808731464082</v>
       </c>
       <c r="O23">
         <f>STDEV(K15:K17)</f>
-        <v>9.3958838505663476</v>
-      </c>
-      <c r="R23" t="s">
-        <v>30</v>
-      </c>
-      <c r="S23">
-        <f>STDEV(S3:S5)</f>
-        <v>12.502987642959571</v>
-      </c>
-      <c r="T23">
-        <f>STDEV(S6:S8)</f>
-        <v>7.786927078978759</v>
-      </c>
-      <c r="U23">
-        <f>STDEV(S9:S11)</f>
-        <v>10.086134046303394</v>
-      </c>
-      <c r="V23">
-        <f>STDEV(S12:S14)</f>
-        <v>15.970835920514618</v>
-      </c>
-      <c r="W23">
-        <f>STDEV(S15:S17)</f>
-        <v>9.7559024868708644</v>
+        <v>33.573954687128136</v>
+      </c>
+      <c r="P23">
+        <f>STDEV(K18:K20)</f>
+        <v>25.279305765784027</v>
       </c>
       <c r="Z23" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AA23">
         <f>STDEV(AA3:AA5)</f>
-        <v>1.5061374439273429</v>
-      </c>
-    </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
+        <v>0.12020815280176453</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>0</v>
       </c>
@@ -3606,83 +3857,68 @@
       <c r="G29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B30" t="str">
-        <f>R2</f>
-        <v>Scoobi</v>
-      </c>
-      <c r="C30">
-        <f>S22</f>
-        <v>912.69999999999993</v>
-      </c>
-      <c r="D30">
-        <f>T22</f>
-        <v>832.05666666666673</v>
-      </c>
-      <c r="E30">
-        <f>U22</f>
-        <v>761.32999999999993</v>
-      </c>
-      <c r="F30">
-        <f>V22</f>
-        <v>737.57999999999993</v>
-      </c>
-      <c r="G30">
-        <f>W22</f>
-        <v>711.24666666666656</v>
-      </c>
-    </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B31" t="str">
         <f>J2</f>
         <v>Crunch</v>
       </c>
-      <c r="C31">
+      <c r="C30">
         <f>K22</f>
-        <v>511.69333333333333</v>
-      </c>
-      <c r="D31">
+        <v>486.68666666666667</v>
+      </c>
+      <c r="D30">
         <f>L22</f>
-        <v>501.95333333333332</v>
-      </c>
-      <c r="E31">
+        <v>987.25</v>
+      </c>
+      <c r="E30">
         <f>M22</f>
-        <v>436.07666666666665</v>
-      </c>
-      <c r="F31">
+        <v>993.61999999999989</v>
+      </c>
+      <c r="F30">
         <f>N22</f>
-        <v>413.90333333333336</v>
-      </c>
-      <c r="G31">
+        <v>826.66666666666663</v>
+      </c>
+      <c r="G30">
         <f>O22</f>
-        <v>384.32666666666665</v>
-      </c>
-    </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B32" t="str">
+        <v>749.33333333333337</v>
+      </c>
+      <c r="H30">
+        <f>P22</f>
+        <v>707.37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B31" t="str">
         <f>B2</f>
         <v>Spark</v>
       </c>
-      <c r="C32">
+      <c r="C31">
         <f>C22</f>
-        <v>219.53666666666666</v>
-      </c>
-      <c r="D32">
+        <v>186.89666666666668</v>
+      </c>
+      <c r="D31">
         <f>D22</f>
-        <v>233.28666666666666</v>
-      </c>
-      <c r="E32">
+        <v>453.60999999999996</v>
+      </c>
+      <c r="E31">
         <f>E22</f>
-        <v>165.52333333333334</v>
-      </c>
-      <c r="F32">
+        <v>423.65333333333336</v>
+      </c>
+      <c r="F31">
         <f>F22</f>
-        <v>152.60333333333332</v>
-      </c>
-      <c r="G32">
+        <v>280.93333333333334</v>
+      </c>
+      <c r="G31">
         <f>G22</f>
-        <v>122.46333333333332</v>
+        <v>245.05333333333331</v>
+      </c>
+      <c r="H31">
+        <f>H22</f>
+        <v>186.89666666666668</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
@@ -3690,172 +3926,2189 @@
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>39</v>
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
       </c>
       <c r="I34" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35">
-        <f t="shared" ref="D35:G37" si="0">D30/$C30</f>
-        <v>0.9116431101858955</v>
+        <f>D30/$C30</f>
+        <v>2.0285125268824569</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
-        <v>0.83415141886709765</v>
+        <f>E30/$C30</f>
+        <v>2.0416010300946534</v>
       </c>
       <c r="F35">
-        <f t="shared" si="0"/>
-        <v>0.80812972499178259</v>
+        <f>F30/$C30</f>
+        <v>1.6985603331369943</v>
       </c>
       <c r="G35">
-        <f t="shared" si="0"/>
-        <v>0.7792776012563456</v>
+        <f>G30/$C30</f>
+        <v>1.5396627535854692</v>
+      </c>
+      <c r="H35">
+        <f>H30/$C30</f>
+        <v>1.4534402695779625</v>
       </c>
       <c r="I35" t="str">
         <f>CONCATENATE(ROUND(C30, 0), " s")</f>
-        <v>913 s</v>
+        <v>487 s</v>
       </c>
       <c r="O35" s="1"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36">
-        <f t="shared" si="0"/>
-        <v>0.98096516142481172</v>
+        <f>D31/$C31</f>
+        <v>2.4270630829870337</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
-        <v>0.8522226854626469</v>
+        <f>E31/$C31</f>
+        <v>2.2667784337156003</v>
       </c>
       <c r="F36">
-        <f t="shared" si="0"/>
-        <v>0.80888943898689325</v>
+        <f>F31/$C31</f>
+        <v>1.5031479070431075</v>
       </c>
       <c r="G36">
         <f>G31/$C31</f>
-        <v>0.75108789118482422</v>
+        <v>1.3111701653320014</v>
+      </c>
+      <c r="H36">
+        <f>H31/$C31</f>
+        <v>1</v>
       </c>
       <c r="I36" t="str">
         <f>CONCATENATE(ROUND(C31, 0), " s")</f>
-        <v>512 s</v>
+        <v>187 s</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="0"/>
-        <v>1.062631906591154</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="0"/>
-        <v>0.75396668741743977</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="0"/>
-        <v>0.69511547046051525</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="0"/>
-        <v>0.55782633121270553</v>
-      </c>
-      <c r="I37" t="str">
-        <f>CONCATENATE(ROUND(C32, 0), " s")</f>
-        <v>220 s</v>
-      </c>
       <c r="O37" s="1"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <f>ROUND(($D35/E35)*100, 0)-100</f>
+        <v>-1</v>
+      </c>
+      <c r="F40">
+        <f>ROUND(($D35/F35)*100, 0)-100</f>
+        <v>19</v>
+      </c>
+      <c r="G40">
+        <f>ROUND(($D35/G35)*100, 0)-100</f>
+        <v>32</v>
+      </c>
+      <c r="H40">
+        <f>ROUND(($D35/H35)*100, 0)-100</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <f>ROUND(($D36/E36)*100, 0)-100</f>
+        <v>7</v>
+      </c>
+      <c r="F41">
+        <f>ROUND(($D36/F36)*100, 0)-100</f>
+        <v>61</v>
+      </c>
+      <c r="G41">
+        <f>ROUND(($D36/G36)*100, 0)-100</f>
+        <v>85</v>
+      </c>
+      <c r="H41">
+        <f>ROUND(($D36/H36)*100, 0)-100</f>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="54" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="H54" s="7"/>
+    </row>
+    <row r="56" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="H56" s="7"/>
+    </row>
+    <row r="60" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G60" s="7"/>
+    </row>
+    <row r="62" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G62" s="7"/>
+    </row>
+    <row r="64" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G64" s="7"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>43</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>875.16</v>
+      </c>
+      <c r="D68">
+        <v>12</v>
+      </c>
+      <c r="E68">
+        <v>1.37</v>
+      </c>
+      <c r="F68">
+        <v>7.52</v>
+      </c>
+      <c r="G68">
+        <v>535248</v>
+      </c>
+      <c r="H68" s="7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>43</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>813.42</v>
+      </c>
+      <c r="D69">
+        <v>22</v>
+      </c>
+      <c r="E69">
+        <v>1.23</v>
+      </c>
+      <c r="F69">
+        <v>6.91</v>
+      </c>
+      <c r="G69">
+        <v>423536</v>
+      </c>
+      <c r="H69" s="7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>43</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>830.77</v>
+      </c>
+      <c r="D70">
+        <v>32</v>
+      </c>
+      <c r="E70">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F70">
+        <v>6.84</v>
+      </c>
+      <c r="G70">
+        <v>664064</v>
+      </c>
+      <c r="H70" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>43</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>702.03</v>
+      </c>
+      <c r="D71">
+        <v>14</v>
+      </c>
+      <c r="E71">
+        <v>1.3</v>
+      </c>
+      <c r="F71">
+        <v>7.08</v>
+      </c>
+      <c r="G71">
+        <v>703936</v>
+      </c>
+      <c r="H71" s="7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>43</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>684.5</v>
+      </c>
+      <c r="D72">
+        <v>24</v>
+      </c>
+      <c r="E72">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F72">
+        <v>7.1</v>
+      </c>
+      <c r="G72">
+        <v>530192</v>
+      </c>
+      <c r="H72" s="7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>43</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>707.26</v>
+      </c>
+      <c r="D73">
+        <v>34</v>
+      </c>
+      <c r="E73">
+        <v>1.07</v>
+      </c>
+      <c r="F73">
+        <v>7.44</v>
+      </c>
+      <c r="G73">
+        <v>440048</v>
+      </c>
+      <c r="H73" s="7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>43</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>653.49</v>
+      </c>
+      <c r="D74">
+        <v>16</v>
+      </c>
+      <c r="E74">
+        <v>1.08</v>
+      </c>
+      <c r="F74">
+        <v>7.02</v>
+      </c>
+      <c r="G74">
+        <v>554416</v>
+      </c>
+      <c r="H74" s="7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>43</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>636.67999999999995</v>
+      </c>
+      <c r="D75">
+        <v>26</v>
+      </c>
+      <c r="E75">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F75">
+        <v>6.95</v>
+      </c>
+      <c r="G75">
+        <v>556688</v>
+      </c>
+      <c r="H75" s="7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>43</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>645.17999999999995</v>
+      </c>
+      <c r="D76">
+        <v>36</v>
+      </c>
+      <c r="E76">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F76">
+        <v>7.06</v>
+      </c>
+      <c r="G76">
+        <v>561760</v>
+      </c>
+      <c r="H76" s="7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>43</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>627.37</v>
+      </c>
+      <c r="D77">
+        <v>18</v>
+      </c>
+      <c r="E77">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F77">
+        <v>6.87</v>
+      </c>
+      <c r="G77">
+        <v>541648</v>
+      </c>
+      <c r="H77" s="7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78">
+        <v>647</v>
+      </c>
+      <c r="D78">
+        <v>28</v>
+      </c>
+      <c r="E78">
+        <v>1.04</v>
+      </c>
+      <c r="F78">
+        <v>6.61</v>
+      </c>
+      <c r="G78">
+        <v>536992</v>
+      </c>
+      <c r="H78" s="7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>43</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79">
+        <v>633.1</v>
+      </c>
+      <c r="D79">
+        <v>38</v>
+      </c>
+      <c r="E79">
+        <v>1.22</v>
+      </c>
+      <c r="F79">
+        <v>6.96</v>
+      </c>
+      <c r="G79">
+        <v>676672</v>
+      </c>
+      <c r="H79" s="7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>43</v>
+      </c>
+      <c r="B80">
+        <v>4</v>
+      </c>
+      <c r="C80">
+        <v>373.59</v>
+      </c>
+      <c r="D80">
+        <v>20</v>
+      </c>
+      <c r="E80">
+        <v>1.03</v>
+      </c>
+      <c r="F80">
+        <v>6.77</v>
+      </c>
+      <c r="G80">
+        <v>535856</v>
+      </c>
+      <c r="H80" s="7">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>43</v>
+      </c>
+      <c r="B81">
+        <v>4</v>
+      </c>
+      <c r="C81">
+        <v>370.76</v>
+      </c>
+      <c r="D81">
+        <v>30</v>
+      </c>
+      <c r="E81">
+        <v>0.93</v>
+      </c>
+      <c r="F81">
+        <v>5.96</v>
+      </c>
+      <c r="G81">
+        <v>531456</v>
+      </c>
+      <c r="H81" s="7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>43</v>
+      </c>
+      <c r="B82">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>369.93</v>
+      </c>
+      <c r="D82">
+        <v>40</v>
+      </c>
+      <c r="E82">
+        <v>0.98</v>
+      </c>
+      <c r="F82">
+        <v>6.56</v>
+      </c>
+      <c r="G82">
+        <v>545920</v>
+      </c>
+      <c r="H82" s="7">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D40">
-        <f t="shared" ref="D40:F40" si="1">ROUND(($C35/D35)*100, 0)</f>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100">
+        <v>584.91</v>
+      </c>
+      <c r="C100">
+        <v>42</v>
+      </c>
+      <c r="D100">
+        <v>1.82</v>
+      </c>
+      <c r="E100">
+        <v>12.18</v>
+      </c>
+      <c r="F100">
+        <v>858816</v>
+      </c>
+      <c r="G100" s="7">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101">
+        <v>558.29999999999995</v>
+      </c>
+      <c r="C101">
+        <v>44</v>
+      </c>
+      <c r="D101">
+        <v>1.74</v>
+      </c>
+      <c r="E101">
+        <v>11.96</v>
+      </c>
+      <c r="F101">
+        <v>861728</v>
+      </c>
+      <c r="G101" s="7">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102">
+        <v>562.6</v>
+      </c>
+      <c r="C102">
+        <v>46</v>
+      </c>
+      <c r="D102">
+        <v>1.78</v>
+      </c>
+      <c r="E102">
+        <v>11.95</v>
+      </c>
+      <c r="F102">
+        <v>885808</v>
+      </c>
+      <c r="G102" s="7">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>64</v>
+      </c>
+      <c r="B107">
+        <v>4</v>
+      </c>
+      <c r="C107">
+        <v>351.5</v>
+      </c>
+      <c r="D107">
+        <v>52</v>
+      </c>
+      <c r="E107">
+        <v>0.7</v>
+      </c>
+      <c r="F107">
+        <v>5.77</v>
+      </c>
+      <c r="G107">
+        <v>400560</v>
+      </c>
+      <c r="H107" s="7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>64</v>
+      </c>
+      <c r="B108">
+        <v>4</v>
+      </c>
+      <c r="C108">
+        <v>350.41</v>
+      </c>
+      <c r="D108">
+        <v>54</v>
+      </c>
+      <c r="E108">
+        <v>0.64</v>
+      </c>
+      <c r="F108">
+        <v>5.66</v>
+      </c>
+      <c r="G108">
+        <v>504592</v>
+      </c>
+      <c r="H108" s="7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>64</v>
+      </c>
+      <c r="B109">
+        <v>4</v>
+      </c>
+      <c r="C109">
+        <v>360.09</v>
+      </c>
+      <c r="D109">
+        <v>56</v>
+      </c>
+      <c r="E109">
+        <v>0.72</v>
+      </c>
+      <c r="F109">
+        <v>5.56</v>
+      </c>
+      <c r="G109">
+        <v>400816</v>
+      </c>
+      <c r="H109" s="7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>44</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>911.38</v>
+      </c>
+      <c r="D116">
+        <v>3.45</v>
+      </c>
+      <c r="E116">
+        <v>17.48</v>
+      </c>
+      <c r="F116">
+        <v>1727152</v>
+      </c>
+      <c r="G116" s="7">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>44</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>929.05</v>
+      </c>
+      <c r="D117">
+        <v>3.56</v>
+      </c>
+      <c r="E117">
+        <v>18.079999999999998</v>
+      </c>
+      <c r="F117">
+        <v>1765952</v>
+      </c>
+      <c r="G117" s="7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>44</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>952.84</v>
+      </c>
+      <c r="D118">
+        <v>112</v>
+      </c>
+      <c r="E118">
+        <v>3.37</v>
+      </c>
+      <c r="F118">
+        <v>18.13</v>
+      </c>
+      <c r="G118" s="7">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>44</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>831.42</v>
+      </c>
+      <c r="D119">
+        <v>6.4</v>
+      </c>
+      <c r="E119">
+        <v>26.39</v>
+      </c>
+      <c r="F119">
+        <v>7208736</v>
+      </c>
+      <c r="G119" s="7">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>44</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>837</v>
+      </c>
+      <c r="D120">
+        <v>7.01</v>
+      </c>
+      <c r="E120">
+        <v>26.1</v>
+      </c>
+      <c r="F120">
+        <v>7108864</v>
+      </c>
+      <c r="G120" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>44</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>870.79</v>
+      </c>
+      <c r="D121">
+        <v>113</v>
+      </c>
+      <c r="E121">
+        <v>6.84</v>
+      </c>
+      <c r="F121">
+        <v>27.1</v>
+      </c>
+      <c r="G121" s="7">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>44</v>
+      </c>
+      <c r="B122">
+        <v>2</v>
+      </c>
+      <c r="C122">
+        <v>679.15</v>
+      </c>
+      <c r="D122">
+        <v>3.06</v>
+      </c>
+      <c r="E122">
+        <v>16.77</v>
+      </c>
+      <c r="F122">
+        <v>1705424</v>
+      </c>
+      <c r="G122" s="7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>44</v>
+      </c>
+      <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123">
+        <v>690.46</v>
+      </c>
+      <c r="D123">
+        <v>3.29</v>
+      </c>
+      <c r="E123">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="F123">
+        <v>1949056</v>
+      </c>
+      <c r="G123" s="7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>44</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+      <c r="C124">
+        <v>695.35</v>
+      </c>
+      <c r="D124">
+        <v>114</v>
+      </c>
+      <c r="E124">
+        <v>3.03</v>
+      </c>
+      <c r="F124">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="G124">
+        <v>5263840</v>
+      </c>
+      <c r="H124" s="7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>44</v>
+      </c>
+      <c r="B125">
+        <v>3</v>
+      </c>
+      <c r="C125">
+        <v>803.83</v>
+      </c>
+      <c r="D125">
+        <v>6.66</v>
+      </c>
+      <c r="E125">
+        <v>26.36</v>
+      </c>
+      <c r="F125">
+        <v>7259552</v>
+      </c>
+      <c r="G125">
+        <v>5350864</v>
+      </c>
+      <c r="H125" s="7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>44</v>
+      </c>
+      <c r="B126">
+        <v>3</v>
+      </c>
+      <c r="C126">
+        <v>817.03</v>
+      </c>
+      <c r="D126">
         <v>110</v>
       </c>
-      <c r="E40">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="1"/>
-        <v>124</v>
-      </c>
-      <c r="G40">
-        <f>ROUND(($C35/G35)*100, 0)</f>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D41">
-        <f t="shared" ref="D41:G41" si="2">ROUND(($C36/D36)*100, 0)</f>
-        <v>102</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="2"/>
-        <v>117</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="2"/>
-        <v>124</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="2"/>
-        <v>133</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D42">
-        <f t="shared" ref="D42:G42" si="3">ROUND(($C37/D37)*100, 0)</f>
-        <v>94</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="3"/>
-        <v>133</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="3"/>
-        <v>144</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="3"/>
-        <v>179</v>
+      <c r="E126">
+        <v>5.81</v>
+      </c>
+      <c r="F126">
+        <v>26.5</v>
+      </c>
+      <c r="G126">
+        <v>1699840</v>
+      </c>
+      <c r="H126" s="7">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>44</v>
+      </c>
+      <c r="B127">
+        <v>3</v>
+      </c>
+      <c r="C127">
+        <v>833.36</v>
+      </c>
+      <c r="D127">
+        <v>115</v>
+      </c>
+      <c r="E127">
+        <v>6.82</v>
+      </c>
+      <c r="F127">
+        <v>27.04</v>
+      </c>
+      <c r="G127">
+        <v>5098448</v>
+      </c>
+      <c r="H127" s="7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>44</v>
+      </c>
+      <c r="B128">
+        <v>4</v>
+      </c>
+      <c r="C128">
+        <v>524.89</v>
+      </c>
+      <c r="D128">
+        <v>15.11</v>
+      </c>
+      <c r="E128">
+        <v>25.72</v>
+      </c>
+      <c r="F128">
+        <v>7284400</v>
+      </c>
+      <c r="G128">
+        <v>1630832</v>
+      </c>
+      <c r="H128" s="7">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>44</v>
+      </c>
+      <c r="B129">
+        <v>4</v>
+      </c>
+      <c r="C129">
+        <v>542.44000000000005</v>
+      </c>
+      <c r="D129">
+        <v>111</v>
+      </c>
+      <c r="E129">
+        <v>5.46</v>
+      </c>
+      <c r="F129">
+        <v>25.42</v>
+      </c>
+      <c r="G129">
+        <v>5144080</v>
+      </c>
+      <c r="H129" s="7">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>44</v>
+      </c>
+      <c r="B130">
+        <v>4</v>
+      </c>
+      <c r="C130">
+        <v>531.09</v>
+      </c>
+      <c r="D130">
+        <v>116</v>
+      </c>
+      <c r="E130">
+        <v>14.91</v>
+      </c>
+      <c r="F130">
+        <v>25.66</v>
+      </c>
+      <c r="G130">
+        <v>5444848</v>
+      </c>
+      <c r="H130" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H135" s="7"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H137" s="7"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H138" s="7"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H139" s="7"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>1166.42</v>
+      </c>
+      <c r="D142">
+        <v>23</v>
+      </c>
+      <c r="E142">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F142">
+        <v>12.01</v>
+      </c>
+      <c r="G142">
+        <v>797824</v>
+      </c>
+      <c r="H142" s="7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>1166.25</v>
+      </c>
+      <c r="D143">
+        <v>24</v>
+      </c>
+      <c r="E143">
+        <v>1.65</v>
+      </c>
+      <c r="F143">
+        <v>12.35</v>
+      </c>
+      <c r="G143">
+        <v>801760</v>
+      </c>
+      <c r="H143" s="7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>1</v>
+      </c>
+      <c r="C144">
+        <v>1103.76</v>
+      </c>
+      <c r="D144">
+        <v>58</v>
+      </c>
+      <c r="E144">
+        <v>1.73</v>
+      </c>
+      <c r="F144">
+        <v>11.18</v>
+      </c>
+      <c r="G144">
+        <v>615904</v>
+      </c>
+      <c r="H144" s="7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>44</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>186.91</v>
+      </c>
+      <c r="D150">
+        <v>59</v>
+      </c>
+      <c r="E150">
+        <v>5.67</v>
+      </c>
+      <c r="F150">
+        <v>25.05</v>
+      </c>
+      <c r="G150">
+        <v>8139952</v>
+      </c>
+      <c r="H150" s="7">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>44</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>184.53</v>
+      </c>
+      <c r="D151">
+        <v>64</v>
+      </c>
+      <c r="E151">
+        <v>5.64</v>
+      </c>
+      <c r="F151">
+        <v>24.93</v>
+      </c>
+      <c r="G151">
+        <v>8000512</v>
+      </c>
+      <c r="H151" s="7">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>44</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>189.25</v>
+      </c>
+      <c r="D152">
+        <v>69</v>
+      </c>
+      <c r="E152">
+        <v>5.76</v>
+      </c>
+      <c r="F152">
+        <v>24.82</v>
+      </c>
+      <c r="G152">
+        <v>8150960</v>
+      </c>
+      <c r="H152" s="7">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>44</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153">
+        <v>458.18</v>
+      </c>
+      <c r="D153">
+        <v>55</v>
+      </c>
+      <c r="E153">
+        <v>2.1</v>
+      </c>
+      <c r="F153">
+        <v>11.84</v>
+      </c>
+      <c r="G153">
+        <v>1429776</v>
+      </c>
+      <c r="H153" s="7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>44</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <v>449.52</v>
+      </c>
+      <c r="D154">
+        <v>60</v>
+      </c>
+      <c r="E154">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F154">
+        <v>11.83</v>
+      </c>
+      <c r="G154">
+        <v>1448112</v>
+      </c>
+      <c r="H154" s="7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>44</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155">
+        <v>453.13</v>
+      </c>
+      <c r="D155">
+        <v>65</v>
+      </c>
+      <c r="E155">
+        <v>2.06</v>
+      </c>
+      <c r="F155">
+        <v>11.64</v>
+      </c>
+      <c r="G155">
+        <v>1437520</v>
+      </c>
+      <c r="H155" s="7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>44</v>
+      </c>
+      <c r="B156">
+        <v>2</v>
+      </c>
+      <c r="C156">
+        <v>423.19</v>
+      </c>
+      <c r="D156">
+        <v>56</v>
+      </c>
+      <c r="E156">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F156">
+        <v>11.29</v>
+      </c>
+      <c r="G156">
+        <v>1326112</v>
+      </c>
+      <c r="H156" s="7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>44</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+      <c r="C157">
+        <v>422.08</v>
+      </c>
+      <c r="D157">
+        <v>61</v>
+      </c>
+      <c r="E157">
+        <v>2.09</v>
+      </c>
+      <c r="F157">
+        <v>11.4</v>
+      </c>
+      <c r="G157">
+        <v>1335424</v>
+      </c>
+      <c r="H157" s="7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>44</v>
+      </c>
+      <c r="B158">
+        <v>2</v>
+      </c>
+      <c r="C158">
+        <v>425.69</v>
+      </c>
+      <c r="D158">
+        <v>66</v>
+      </c>
+      <c r="E158">
+        <v>1.98</v>
+      </c>
+      <c r="F158">
+        <v>11.33</v>
+      </c>
+      <c r="G158">
+        <v>1228992</v>
+      </c>
+      <c r="H158" s="7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>44</v>
+      </c>
+      <c r="B159">
+        <v>3</v>
+      </c>
+      <c r="C159">
+        <v>285.36</v>
+      </c>
+      <c r="D159">
+        <v>57</v>
+      </c>
+      <c r="E159">
+        <v>1.84</v>
+      </c>
+      <c r="F159">
+        <v>10.63</v>
+      </c>
+      <c r="G159">
+        <v>1397520</v>
+      </c>
+      <c r="H159" s="7">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>44</v>
+      </c>
+      <c r="B160">
+        <v>3</v>
+      </c>
+      <c r="C160">
+        <v>276.05</v>
+      </c>
+      <c r="D160">
+        <v>62</v>
+      </c>
+      <c r="E160">
+        <v>1.81</v>
+      </c>
+      <c r="F160">
+        <v>10.63</v>
+      </c>
+      <c r="G160">
+        <v>1407632</v>
+      </c>
+      <c r="H160" s="7">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>44</v>
+      </c>
+      <c r="B161">
+        <v>3</v>
+      </c>
+      <c r="C161">
+        <v>281.39</v>
+      </c>
+      <c r="D161">
+        <v>67</v>
+      </c>
+      <c r="E161">
+        <v>1.84</v>
+      </c>
+      <c r="F161">
+        <v>10.7</v>
+      </c>
+      <c r="G161">
+        <v>1395408</v>
+      </c>
+      <c r="H161" s="7">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>44</v>
+      </c>
+      <c r="B162">
+        <v>4</v>
+      </c>
+      <c r="C162">
+        <v>245.14</v>
+      </c>
+      <c r="D162">
+        <v>58</v>
+      </c>
+      <c r="E162">
+        <v>1.92</v>
+      </c>
+      <c r="F162">
+        <v>10.33</v>
+      </c>
+      <c r="G162">
+        <v>1377344</v>
+      </c>
+      <c r="H162" s="7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>44</v>
+      </c>
+      <c r="B163">
+        <v>4</v>
+      </c>
+      <c r="C163">
+        <v>245.56</v>
+      </c>
+      <c r="D163">
+        <v>63</v>
+      </c>
+      <c r="E163">
+        <v>1.88</v>
+      </c>
+      <c r="F163">
+        <v>10.5</v>
+      </c>
+      <c r="G163">
+        <v>1388512</v>
+      </c>
+      <c r="H163" s="7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>44</v>
+      </c>
+      <c r="B164">
+        <v>4</v>
+      </c>
+      <c r="C164">
+        <v>244.46</v>
+      </c>
+      <c r="D164">
+        <v>68</v>
+      </c>
+      <c r="E164">
+        <v>1.89</v>
+      </c>
+      <c r="F164">
+        <v>10.75</v>
+      </c>
+      <c r="G164">
+        <v>1412784</v>
+      </c>
+      <c r="H164" s="7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>44</v>
+      </c>
+      <c r="B165">
+        <v>5</v>
+      </c>
+      <c r="C165">
+        <v>186.91</v>
+      </c>
+      <c r="D165">
+        <v>59</v>
+      </c>
+      <c r="E165">
+        <v>5.67</v>
+      </c>
+      <c r="F165">
+        <v>25.05</v>
+      </c>
+      <c r="G165">
+        <v>8139952</v>
+      </c>
+      <c r="H165" s="7">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>44</v>
+      </c>
+      <c r="B166">
+        <v>5</v>
+      </c>
+      <c r="C166">
+        <v>184.53</v>
+      </c>
+      <c r="D166">
+        <v>64</v>
+      </c>
+      <c r="E166">
+        <v>5.64</v>
+      </c>
+      <c r="F166">
+        <v>24.93</v>
+      </c>
+      <c r="G166">
+        <v>8000512</v>
+      </c>
+      <c r="H166" s="7">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>44</v>
+      </c>
+      <c r="B167">
+        <v>5</v>
+      </c>
+      <c r="C167">
+        <v>189.25</v>
+      </c>
+      <c r="D167">
+        <v>69</v>
+      </c>
+      <c r="E167">
+        <v>5.76</v>
+      </c>
+      <c r="F167">
+        <v>24.82</v>
+      </c>
+      <c r="G167">
+        <v>8150960</v>
+      </c>
+      <c r="H167" s="7">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>64</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>487.26</v>
+      </c>
+      <c r="D171">
+        <v>20</v>
+      </c>
+      <c r="E171">
+        <v>0.75</v>
+      </c>
+      <c r="F171">
+        <v>5.01</v>
+      </c>
+      <c r="G171">
+        <v>392400</v>
+      </c>
+      <c r="H171" s="7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>64</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172">
+        <v>486.54</v>
+      </c>
+      <c r="D172">
+        <v>21</v>
+      </c>
+      <c r="E172">
+        <v>0.67</v>
+      </c>
+      <c r="F172">
+        <v>5.24</v>
+      </c>
+      <c r="G172">
+        <v>473408</v>
+      </c>
+      <c r="H172" s="7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>64</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>486.26</v>
+      </c>
+      <c r="D173">
+        <v>22</v>
+      </c>
+      <c r="E173">
+        <v>0.66</v>
+      </c>
+      <c r="F173">
+        <v>4.97</v>
+      </c>
+      <c r="G173">
+        <v>465072</v>
+      </c>
+      <c r="H173" s="7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>43</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174">
+        <v>928.45</v>
+      </c>
+      <c r="D174">
+        <v>5</v>
+      </c>
+      <c r="E174">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F174">
+        <v>5.82</v>
+      </c>
+      <c r="G174">
+        <v>476752</v>
+      </c>
+      <c r="H174" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>43</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+      <c r="C175">
+        <v>994.82</v>
+      </c>
+      <c r="D175">
+        <v>10</v>
+      </c>
+      <c r="E175">
+        <v>1.23</v>
+      </c>
+      <c r="F175">
+        <v>6.21</v>
+      </c>
+      <c r="G175">
+        <v>359408</v>
+      </c>
+      <c r="H175" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>43</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176">
+        <v>1038.48</v>
+      </c>
+      <c r="D176">
+        <v>15</v>
+      </c>
+      <c r="E176">
+        <v>1.22</v>
+      </c>
+      <c r="F176">
+        <v>6.48</v>
+      </c>
+      <c r="G176">
+        <v>478384</v>
+      </c>
+      <c r="H176" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>43</v>
+      </c>
+      <c r="B177">
+        <v>2</v>
+      </c>
+      <c r="C177">
+        <v>960.91</v>
+      </c>
+      <c r="D177">
+        <v>6</v>
+      </c>
+      <c r="E177">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F177">
+        <v>6.12</v>
+      </c>
+      <c r="G177">
+        <v>459392</v>
+      </c>
+      <c r="H177" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>43</v>
+      </c>
+      <c r="B178">
+        <v>2</v>
+      </c>
+      <c r="C178">
+        <v>985.64</v>
+      </c>
+      <c r="D178">
+        <v>11</v>
+      </c>
+      <c r="E178">
+        <v>1.06</v>
+      </c>
+      <c r="F178">
+        <v>6.55</v>
+      </c>
+      <c r="G178">
+        <v>372640</v>
+      </c>
+      <c r="H178" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>43</v>
+      </c>
+      <c r="B179">
+        <v>2</v>
+      </c>
+      <c r="C179">
+        <v>1034.31</v>
+      </c>
+      <c r="D179">
+        <v>16</v>
+      </c>
+      <c r="E179">
+        <v>1.23</v>
+      </c>
+      <c r="F179">
+        <v>6.28</v>
+      </c>
+      <c r="G179">
+        <v>466800</v>
+      </c>
+      <c r="H179" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>43</v>
+      </c>
+      <c r="B180">
+        <v>3</v>
+      </c>
+      <c r="C180">
+        <v>805.29</v>
+      </c>
+      <c r="D180">
+        <v>7</v>
+      </c>
+      <c r="E180">
+        <v>1.05</v>
+      </c>
+      <c r="F180">
+        <v>6.19</v>
+      </c>
+      <c r="G180">
+        <v>476928</v>
+      </c>
+      <c r="H180" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>43</v>
+      </c>
+      <c r="B181">
+        <v>3</v>
+      </c>
+      <c r="C181">
+        <v>816.43</v>
+      </c>
+      <c r="D181">
+        <v>12</v>
+      </c>
+      <c r="E181">
+        <v>1.08</v>
+      </c>
+      <c r="F181">
+        <v>6.28</v>
+      </c>
+      <c r="G181">
+        <v>361120</v>
+      </c>
+      <c r="H181" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>43</v>
+      </c>
+      <c r="B182">
+        <v>3</v>
+      </c>
+      <c r="C182">
+        <v>858.28</v>
+      </c>
+      <c r="D182">
+        <v>17</v>
+      </c>
+      <c r="E182">
+        <v>1.21</v>
+      </c>
+      <c r="F182">
+        <v>6.35</v>
+      </c>
+      <c r="G182">
+        <v>579440</v>
+      </c>
+      <c r="H182" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>43</v>
+      </c>
+      <c r="B183">
+        <v>4</v>
+      </c>
+      <c r="C183">
+        <v>763.55</v>
+      </c>
+      <c r="D183">
+        <v>8</v>
+      </c>
+      <c r="E183">
+        <v>1.05</v>
+      </c>
+      <c r="F183">
+        <v>5.92</v>
+      </c>
+      <c r="G183">
+        <v>596864</v>
+      </c>
+      <c r="H183" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>43</v>
+      </c>
+      <c r="B184">
+        <v>4</v>
+      </c>
+      <c r="C184">
+        <v>710.99</v>
+      </c>
+      <c r="D184">
+        <v>13</v>
+      </c>
+      <c r="E184">
+        <v>1.02</v>
+      </c>
+      <c r="F184">
+        <v>5.98</v>
+      </c>
+      <c r="G184">
+        <v>475680</v>
+      </c>
+      <c r="H184" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>43</v>
+      </c>
+      <c r="B185">
+        <v>4</v>
+      </c>
+      <c r="C185">
+        <v>773.46</v>
+      </c>
+      <c r="D185">
+        <v>18</v>
+      </c>
+      <c r="E185">
+        <v>1.02</v>
+      </c>
+      <c r="F185">
+        <v>5.98</v>
+      </c>
+      <c r="G185">
+        <v>473296</v>
+      </c>
+      <c r="H185" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>43</v>
+      </c>
+      <c r="B186">
+        <v>5</v>
+      </c>
+      <c r="C186">
+        <v>711.5</v>
+      </c>
+      <c r="D186">
+        <v>9</v>
+      </c>
+      <c r="E186">
+        <v>1.04</v>
+      </c>
+      <c r="F186">
+        <v>7.48</v>
+      </c>
+      <c r="G186">
+        <v>567264</v>
+      </c>
+      <c r="H186" s="7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>43</v>
+      </c>
+      <c r="B187">
+        <v>5</v>
+      </c>
+      <c r="C187">
+        <v>680.28</v>
+      </c>
+      <c r="D187">
+        <v>14</v>
+      </c>
+      <c r="E187">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F187">
+        <v>7.28</v>
+      </c>
+      <c r="G187">
+        <v>618592</v>
+      </c>
+      <c r="H187" s="7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>43</v>
+      </c>
+      <c r="B188">
+        <v>5</v>
+      </c>
+      <c r="C188">
+        <v>730.33</v>
+      </c>
+      <c r="D188">
+        <v>19</v>
+      </c>
+      <c r="E188">
+        <v>1.05</v>
+      </c>
+      <c r="F188">
+        <v>7.08</v>
+      </c>
+      <c r="G188">
+        <v>648576</v>
+      </c>
+      <c r="H188" s="7">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="AD4:AI18">
-    <sortCondition ref="AD3:AD19"/>
+  <sortState ref="A174:H188">
+    <sortCondition ref="B164:B178"/>
   </sortState>
   <pageMargins left="0" right="0" top="0.39410000000000006" bottom="0.39410000000000006" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3869,10 +6122,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM42"/>
+  <dimension ref="A1:AM44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3884,86 +6137,82 @@
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="Z2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>495.68</v>
+        <v>524.89</v>
       </c>
       <c r="D3">
-        <v>1.56</v>
+        <v>15.11</v>
       </c>
       <c r="E3">
-        <v>8.9</v>
+        <v>25.72</v>
       </c>
       <c r="F3">
-        <v>1179184</v>
+        <v>7284400</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="J3" t="s">
-        <v>7</v>
+      <c r="I3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>520.36</v>
+        <v>351.5</v>
       </c>
       <c r="L3">
+        <v>52</v>
+      </c>
+      <c r="M3">
+        <v>0.7</v>
+      </c>
+      <c r="N3">
+        <v>5.77</v>
+      </c>
+      <c r="O3">
+        <v>400560</v>
+      </c>
+      <c r="Z3" t="s">
         <v>1</v>
       </c>
-      <c r="M3">
-        <v>5.92</v>
-      </c>
-      <c r="N3">
-        <v>380880</v>
-      </c>
-      <c r="R3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S3">
-        <v>657.44</v>
-      </c>
-      <c r="T3">
-        <v>13.22</v>
-      </c>
-      <c r="U3">
-        <v>21.77</v>
-      </c>
-      <c r="V3">
-        <v>1273232</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>11</v>
-      </c>
       <c r="AA3">
-        <v>437.79</v>
+        <v>584.91</v>
       </c>
       <c r="AB3">
-        <v>2.3199999999999998</v>
+        <v>42</v>
       </c>
       <c r="AC3">
-        <v>11.1</v>
+        <v>1.82</v>
       </c>
       <c r="AD3">
-        <v>741904</v>
-      </c>
-      <c r="AF3" s="1"/>
+        <v>12.18</v>
+      </c>
+      <c r="AE3">
+        <v>858816</v>
+      </c>
+      <c r="AF3" s="7">
+        <v>0.02</v>
+      </c>
       <c r="AH3" s="6"/>
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
@@ -3972,68 +6221,67 @@
       <c r="AM3" s="6"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>481.14</v>
+        <v>542.44000000000005</v>
       </c>
       <c r="D4">
-        <v>1.52</v>
+        <v>111</v>
       </c>
       <c r="E4">
-        <v>8.5399999999999991</v>
+        <v>5.46</v>
       </c>
       <c r="F4">
-        <v>1169456</v>
+        <v>25.42</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="J4" t="s">
-        <v>7</v>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>499.33</v>
+        <v>350.41</v>
       </c>
       <c r="L4">
-        <v>0.89</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>6.14</v>
+        <v>0.64</v>
       </c>
       <c r="N4">
-        <v>514352</v>
-      </c>
-      <c r="R4" t="s">
-        <v>10</v>
-      </c>
-      <c r="S4">
-        <v>661.45</v>
-      </c>
-      <c r="T4">
-        <v>11.7</v>
-      </c>
-      <c r="U4">
-        <v>20.93</v>
-      </c>
-      <c r="V4">
-        <v>1160128</v>
+        <v>5.66</v>
+      </c>
+      <c r="O4">
+        <v>504592</v>
       </c>
       <c r="Z4" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>437.13</v>
+        <v>558.29999999999995</v>
       </c>
       <c r="AB4">
-        <v>2.2599999999999998</v>
+        <v>44</v>
       </c>
       <c r="AC4">
-        <v>11.32</v>
+        <v>1.74</v>
       </c>
       <c r="AD4">
-        <v>734400</v>
-      </c>
-      <c r="AF4" s="1"/>
+        <v>11.96</v>
+      </c>
+      <c r="AE4">
+        <v>861728</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>0.02</v>
+      </c>
       <c r="AH4" s="6"/>
       <c r="AI4" s="6"/>
       <c r="AJ4" s="6"/>
@@ -4042,68 +6290,67 @@
       <c r="AM4" s="6"/>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>464.72</v>
+        <v>531.09</v>
       </c>
       <c r="D5">
-        <v>1.45</v>
+        <v>116</v>
       </c>
       <c r="E5">
-        <v>8.58</v>
+        <v>14.91</v>
       </c>
       <c r="F5">
-        <v>1181376</v>
+        <v>25.66</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="J5" t="s">
-        <v>7</v>
+      <c r="I5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>504.7</v>
+        <v>360.09</v>
       </c>
       <c r="L5">
-        <v>0.98</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>6.03</v>
+        <v>0.72</v>
       </c>
       <c r="N5">
-        <v>672544</v>
-      </c>
-      <c r="R5" t="s">
-        <v>10</v>
-      </c>
-      <c r="S5">
-        <v>669.77</v>
-      </c>
-      <c r="T5">
-        <v>11.12</v>
-      </c>
-      <c r="U5">
-        <v>20.86</v>
-      </c>
-      <c r="V5">
-        <v>1265200</v>
+        <v>5.56</v>
+      </c>
+      <c r="O5">
+        <v>400816</v>
       </c>
       <c r="Z5" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>436.68</v>
+        <v>562.6</v>
       </c>
       <c r="AB5">
-        <v>2.5099999999999998</v>
+        <v>46</v>
       </c>
       <c r="AC5">
-        <v>10.97</v>
+        <v>1.78</v>
       </c>
       <c r="AD5">
-        <v>756224</v>
-      </c>
-      <c r="AF5" s="1"/>
+        <v>11.95</v>
+      </c>
+      <c r="AE5">
+        <v>885808</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>0.02</v>
+      </c>
       <c r="AH5" s="6"/>
       <c r="AI5" s="6"/>
       <c r="AJ5" s="6"/>
@@ -4112,51 +6359,45 @@
       <c r="AM5" s="6"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>441.38</v>
+        <v>911.38</v>
       </c>
       <c r="D6">
-        <v>1.49</v>
+        <v>3.45</v>
       </c>
       <c r="E6">
-        <v>8.64</v>
+        <v>17.48</v>
       </c>
       <c r="F6">
-        <v>1190288</v>
+        <v>1727152</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="J6" t="s">
-        <v>6</v>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>473.68</v>
+        <v>875.16</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="M6">
-        <v>5.96</v>
+        <v>1.37</v>
       </c>
       <c r="N6">
-        <v>494832</v>
-      </c>
-      <c r="R6" t="s">
-        <v>9</v>
-      </c>
-      <c r="S6">
-        <v>625.71</v>
-      </c>
-      <c r="T6">
-        <v>13.28</v>
-      </c>
-      <c r="U6">
-        <v>21.48</v>
-      </c>
-      <c r="V6">
-        <v>1194208</v>
+        <v>7.52</v>
+      </c>
+      <c r="O6">
+        <v>535248</v>
       </c>
       <c r="AF6" s="1"/>
       <c r="AH6" s="6"/>
@@ -4167,51 +6408,45 @@
       <c r="AM6" s="6"/>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>428.62</v>
+        <v>929.05</v>
       </c>
       <c r="D7">
-        <v>1.42</v>
+        <v>3.56</v>
       </c>
       <c r="E7">
-        <v>8.4700000000000006</v>
+        <v>18.079999999999998</v>
       </c>
       <c r="F7">
-        <v>1181808</v>
+        <v>1765952</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="J7" t="s">
-        <v>6</v>
+      <c r="I7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>494.98</v>
+        <v>813.42</v>
       </c>
       <c r="L7">
-        <v>0.91</v>
+        <v>22</v>
       </c>
       <c r="M7">
-        <v>5.92</v>
+        <v>1.23</v>
       </c>
       <c r="N7">
-        <v>499408</v>
-      </c>
-      <c r="R7" t="s">
-        <v>9</v>
-      </c>
-      <c r="S7">
-        <v>618.1</v>
-      </c>
-      <c r="T7">
-        <v>11.73</v>
-      </c>
-      <c r="U7">
-        <v>20.58</v>
-      </c>
-      <c r="V7">
-        <v>1160592</v>
+        <v>6.91</v>
+      </c>
+      <c r="O7">
+        <v>423536</v>
       </c>
       <c r="AF7" s="1"/>
       <c r="AH7" s="6"/>
@@ -4222,51 +6457,45 @@
       <c r="AM7" s="6"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>429.01</v>
+        <v>952.84</v>
       </c>
       <c r="D8">
-        <v>1.55</v>
+        <v>112</v>
       </c>
       <c r="E8">
-        <v>8.59</v>
+        <v>3.37</v>
       </c>
       <c r="F8">
-        <v>1185904</v>
+        <v>18.13</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="J8" t="s">
-        <v>6</v>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>468.76</v>
+        <v>830.77</v>
       </c>
       <c r="L8">
-        <v>1.1200000000000001</v>
+        <v>32</v>
       </c>
       <c r="M8">
-        <v>6.03</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="N8">
-        <v>664624</v>
-      </c>
-      <c r="R8" t="s">
-        <v>9</v>
-      </c>
-      <c r="S8">
-        <v>623.45000000000005</v>
-      </c>
-      <c r="T8">
-        <v>11.27</v>
-      </c>
-      <c r="U8">
-        <v>20.92</v>
-      </c>
-      <c r="V8">
-        <v>1242032</v>
+        <v>6.84</v>
+      </c>
+      <c r="O8">
+        <v>664064</v>
       </c>
       <c r="AH8" s="6"/>
       <c r="AI8" s="6"/>
@@ -4276,51 +6505,45 @@
       <c r="AM8" s="6"/>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9">
-        <v>288.60000000000002</v>
+        <v>831.42</v>
       </c>
       <c r="D9">
-        <v>1.41</v>
+        <v>6.4</v>
       </c>
       <c r="E9">
-        <v>7.82</v>
+        <v>26.39</v>
       </c>
       <c r="F9">
-        <v>1167600</v>
+        <v>7208736</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="J9" t="s">
-        <v>5</v>
+      <c r="I9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
       </c>
       <c r="K9">
-        <v>431.95</v>
+        <v>702.03</v>
       </c>
       <c r="L9">
-        <v>0.92</v>
+        <v>14</v>
       </c>
       <c r="M9">
-        <v>6.1</v>
+        <v>1.3</v>
       </c>
       <c r="N9">
-        <v>665824</v>
-      </c>
-      <c r="R9" t="s">
-        <v>8</v>
-      </c>
-      <c r="S9">
-        <v>598.30999999999995</v>
-      </c>
-      <c r="T9">
-        <v>11.95</v>
-      </c>
-      <c r="U9">
-        <v>21.04</v>
-      </c>
-      <c r="V9">
-        <v>1300032</v>
+        <v>7.08</v>
+      </c>
+      <c r="O9">
+        <v>703936</v>
       </c>
       <c r="AF9" s="1"/>
       <c r="AH9" s="6"/>
@@ -4331,51 +6554,45 @@
       <c r="AM9" s="6"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10">
-        <v>274.20999999999998</v>
+        <v>837</v>
       </c>
       <c r="D10">
-        <v>1.25</v>
+        <v>7.01</v>
       </c>
       <c r="E10">
-        <v>7.8</v>
+        <v>26.1</v>
       </c>
       <c r="F10">
-        <v>1151408</v>
+        <v>7108864</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="J10" t="s">
-        <v>5</v>
+      <c r="I10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
       </c>
       <c r="K10">
-        <v>426.82</v>
+        <v>684.5</v>
       </c>
       <c r="L10">
-        <v>1.05</v>
+        <v>24</v>
       </c>
       <c r="M10">
-        <v>5.85</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="N10">
-        <v>676432</v>
-      </c>
-      <c r="R10" t="s">
-        <v>8</v>
-      </c>
-      <c r="S10">
-        <v>610.42999999999995</v>
-      </c>
-      <c r="T10">
-        <v>12.09</v>
-      </c>
-      <c r="U10">
-        <v>21.94</v>
-      </c>
-      <c r="V10">
-        <v>1274048</v>
+        <v>7.1</v>
+      </c>
+      <c r="O10">
+        <v>530192</v>
       </c>
       <c r="AF10" s="1"/>
       <c r="AH10" s="6"/>
@@ -4386,51 +6603,45 @@
       <c r="AM10" s="6"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11">
-        <v>279.61</v>
+        <v>870.79</v>
       </c>
       <c r="D11">
-        <v>1.32</v>
+        <v>113</v>
       </c>
       <c r="E11">
-        <v>7.75</v>
+        <v>6.84</v>
       </c>
       <c r="F11">
-        <v>1186800</v>
+        <v>27.1</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="J11" t="s">
-        <v>5</v>
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
       </c>
       <c r="K11">
-        <v>427.15</v>
+        <v>707.26</v>
       </c>
       <c r="L11">
-        <v>1.05</v>
+        <v>34</v>
       </c>
       <c r="M11">
-        <v>5.56</v>
+        <v>1.07</v>
       </c>
       <c r="N11">
-        <v>679744</v>
-      </c>
-      <c r="R11" t="s">
-        <v>8</v>
-      </c>
-      <c r="S11">
-        <v>594.54999999999995</v>
-      </c>
-      <c r="T11">
-        <v>12.22</v>
-      </c>
-      <c r="U11">
-        <v>21.16</v>
-      </c>
-      <c r="V11">
-        <v>1170176</v>
+        <v>7.44</v>
+      </c>
+      <c r="O11">
+        <v>440048</v>
       </c>
       <c r="AF11" s="1"/>
       <c r="AH11" s="6"/>
@@ -4441,51 +6652,45 @@
       <c r="AM11" s="6"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
       <c r="B12">
         <v>3</v>
       </c>
       <c r="C12">
-        <v>440.49</v>
+        <v>679.15</v>
       </c>
       <c r="D12">
-        <v>1.53</v>
+        <v>3.06</v>
       </c>
       <c r="E12">
-        <v>9.3000000000000007</v>
+        <v>16.77</v>
       </c>
       <c r="F12">
-        <v>1237312</v>
+        <v>1705424</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="J12" t="s">
-        <v>4</v>
+      <c r="I12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
       </c>
       <c r="K12">
-        <v>437.36</v>
+        <v>653.49</v>
       </c>
       <c r="L12">
-        <v>0.9</v>
+        <v>16</v>
       </c>
       <c r="M12">
-        <v>6.02</v>
+        <v>1.08</v>
       </c>
       <c r="N12">
-        <v>481200</v>
-      </c>
-      <c r="R12" t="s">
-        <v>3</v>
-      </c>
-      <c r="S12">
-        <v>587.25</v>
-      </c>
-      <c r="T12">
-        <v>11.78</v>
-      </c>
-      <c r="U12">
-        <v>20.74</v>
-      </c>
-      <c r="V12">
-        <v>1240064</v>
+        <v>7.02</v>
+      </c>
+      <c r="O12">
+        <v>554416</v>
       </c>
       <c r="AF12" s="1"/>
       <c r="AH12" s="6"/>
@@ -4496,51 +6701,45 @@
       <c r="AM12" s="6"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13">
-        <v>411.02</v>
+        <v>690.46</v>
       </c>
       <c r="D13">
-        <v>1.47</v>
+        <v>3.29</v>
       </c>
       <c r="E13">
-        <v>9.0500000000000007</v>
+        <v>17.440000000000001</v>
       </c>
       <c r="F13">
-        <v>1180032</v>
+        <v>1949056</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="J13" t="s">
-        <v>4</v>
+      <c r="I13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
       </c>
       <c r="K13">
-        <v>437.39</v>
+        <v>636.67999999999995</v>
       </c>
       <c r="L13">
-        <v>0.98</v>
+        <v>26</v>
       </c>
       <c r="M13">
-        <v>6.06</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="N13">
-        <v>485296</v>
-      </c>
-      <c r="R13" t="s">
-        <v>3</v>
-      </c>
-      <c r="S13">
-        <v>579.75</v>
-      </c>
-      <c r="T13">
-        <v>12.62</v>
-      </c>
-      <c r="U13">
-        <v>21.22</v>
-      </c>
-      <c r="V13">
-        <v>1176784</v>
+        <v>6.95</v>
+      </c>
+      <c r="O13">
+        <v>556688</v>
       </c>
       <c r="AF13" s="1"/>
       <c r="AH13" s="6"/>
@@ -4551,51 +6750,45 @@
       <c r="AM13" s="6"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14">
-        <v>425.6</v>
+        <v>695.35</v>
       </c>
       <c r="D14">
-        <v>1.48</v>
+        <v>114</v>
       </c>
       <c r="E14">
-        <v>9.08</v>
+        <v>3.03</v>
       </c>
       <c r="F14">
-        <v>1263168</v>
+        <v>16.440000000000001</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="J14" t="s">
-        <v>4</v>
+      <c r="I14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
       </c>
       <c r="K14">
-        <v>442.31</v>
+        <v>645.17999999999995</v>
       </c>
       <c r="L14">
-        <v>0.85</v>
+        <v>36</v>
       </c>
       <c r="M14">
-        <v>6.31</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="N14">
-        <v>498080</v>
-      </c>
-      <c r="R14" t="s">
-        <v>3</v>
-      </c>
-      <c r="S14">
-        <v>582.26</v>
-      </c>
-      <c r="T14">
-        <v>11.52</v>
-      </c>
-      <c r="U14">
-        <v>20.96</v>
-      </c>
-      <c r="V14">
-        <v>925056</v>
+        <v>7.06</v>
+      </c>
+      <c r="O14">
+        <v>561760</v>
       </c>
       <c r="AF14" s="1"/>
       <c r="AH14" s="6"/>
@@ -4606,51 +6799,45 @@
       <c r="AM14" s="6"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
       <c r="B15">
         <v>4</v>
       </c>
       <c r="C15">
-        <v>193.95</v>
+        <v>803.83</v>
       </c>
       <c r="D15">
-        <v>1.3</v>
+        <v>6.66</v>
       </c>
       <c r="E15">
-        <v>8.2799999999999994</v>
+        <v>26.36</v>
       </c>
       <c r="F15">
-        <v>1192208</v>
+        <v>7259552</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="J15" t="s">
-        <v>1</v>
+      <c r="I15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
       </c>
       <c r="K15">
-        <v>322.55</v>
+        <v>627.37</v>
       </c>
       <c r="L15">
-        <v>0.9</v>
+        <v>18</v>
       </c>
       <c r="M15">
-        <v>6.02</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="N15">
-        <v>487488</v>
-      </c>
-      <c r="R15" t="s">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>474.16</v>
-      </c>
-      <c r="T15">
-        <v>11.89</v>
-      </c>
-      <c r="U15">
-        <v>21.56</v>
-      </c>
-      <c r="V15">
-        <v>1287072</v>
+        <v>6.87</v>
+      </c>
+      <c r="O15">
+        <v>541648</v>
       </c>
       <c r="AF15" s="1"/>
       <c r="AH15" s="6"/>
@@ -4661,51 +6848,45 @@
       <c r="AM15" s="6"/>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
       <c r="B16">
         <v>4</v>
       </c>
       <c r="C16">
-        <v>196.94</v>
+        <v>817.03</v>
       </c>
       <c r="D16">
-        <v>1.31</v>
+        <v>110</v>
       </c>
       <c r="E16">
-        <v>8.25</v>
+        <v>5.81</v>
       </c>
       <c r="F16">
-        <v>1226144</v>
+        <v>26.5</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="J16" t="s">
-        <v>1</v>
+      <c r="I16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
       </c>
       <c r="K16">
-        <v>317.33</v>
+        <v>647</v>
       </c>
       <c r="L16">
-        <v>0.94</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>5.83</v>
+        <v>1.04</v>
       </c>
       <c r="N16">
-        <v>662752</v>
-      </c>
-      <c r="R16" t="s">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>479.58</v>
-      </c>
-      <c r="T16">
-        <v>13.53</v>
-      </c>
-      <c r="U16">
-        <v>23.85</v>
-      </c>
-      <c r="V16">
-        <v>1191472</v>
+        <v>6.61</v>
+      </c>
+      <c r="O16">
+        <v>536992</v>
       </c>
       <c r="AF16" s="1"/>
       <c r="AH16" s="6"/>
@@ -4715,52 +6896,46 @@
       <c r="AL16" s="6"/>
       <c r="AM16" s="6"/>
     </row>
-    <row r="17" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
       <c r="B17">
         <v>4</v>
       </c>
       <c r="C17">
-        <v>190.78</v>
+        <v>833.36</v>
       </c>
       <c r="D17">
-        <v>1.3</v>
+        <v>115</v>
       </c>
       <c r="E17">
-        <v>8.1</v>
+        <v>6.82</v>
       </c>
       <c r="F17">
-        <v>1217008</v>
+        <v>27.04</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="J17" t="s">
-        <v>1</v>
+      <c r="I17" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
       </c>
       <c r="K17">
-        <v>317.68</v>
+        <v>633.1</v>
       </c>
       <c r="L17">
-        <v>1.01</v>
+        <v>38</v>
       </c>
       <c r="M17">
-        <v>5.64</v>
+        <v>1.22</v>
       </c>
       <c r="N17">
-        <v>663120</v>
-      </c>
-      <c r="R17" t="s">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>484.34</v>
-      </c>
-      <c r="T17">
-        <v>11.37</v>
-      </c>
-      <c r="U17">
-        <v>20.41</v>
-      </c>
-      <c r="V17">
-        <v>1158304</v>
+        <v>6.96</v>
+      </c>
+      <c r="O17">
+        <v>676672</v>
       </c>
       <c r="AF17" s="1"/>
       <c r="AH17" s="6"/>
@@ -4770,493 +6945,528 @@
       <c r="AL17" s="6"/>
       <c r="AM17" s="6"/>
     </row>
-    <row r="18" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>524.89</v>
+      </c>
+      <c r="D18">
+        <v>15.11</v>
+      </c>
+      <c r="E18">
+        <v>25.72</v>
+      </c>
+      <c r="F18">
+        <v>7284400</v>
+      </c>
+      <c r="I18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>373.59</v>
+      </c>
+      <c r="L18">
+        <v>20</v>
+      </c>
+      <c r="M18">
+        <v>1.03</v>
+      </c>
+      <c r="N18">
+        <v>6.77</v>
+      </c>
+      <c r="O18">
+        <v>535856</v>
+      </c>
       <c r="AF18" s="1"/>
     </row>
-    <row r="21" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>542.44000000000005</v>
+      </c>
+      <c r="D19">
+        <v>111</v>
+      </c>
+      <c r="E19">
+        <v>5.46</v>
+      </c>
+      <c r="F19">
+        <v>25.42</v>
+      </c>
+      <c r="I19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>370.76</v>
+      </c>
+      <c r="L19">
+        <v>30</v>
+      </c>
+      <c r="M19">
+        <v>0.93</v>
+      </c>
+      <c r="N19">
+        <v>5.96</v>
+      </c>
+      <c r="O19">
+        <v>531456</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>531.09</v>
+      </c>
+      <c r="D20">
+        <v>116</v>
+      </c>
+      <c r="E20">
+        <v>14.91</v>
+      </c>
+      <c r="F20">
+        <v>25.66</v>
+      </c>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>369.93</v>
+      </c>
+      <c r="L20">
+        <v>40</v>
+      </c>
+      <c r="M20">
+        <v>0.98</v>
+      </c>
+      <c r="N20">
+        <v>6.56</v>
+      </c>
+      <c r="O20">
+        <v>545920</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="Z22" t="s">
         <v>2</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-      <c r="G21">
-        <v>4</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>2</v>
-      </c>
-      <c r="N21">
-        <v>3</v>
-      </c>
-      <c r="O21">
-        <v>4</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>1</v>
-      </c>
-      <c r="U21">
-        <v>2</v>
-      </c>
-      <c r="V21">
-        <v>3</v>
-      </c>
-      <c r="W21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22">
-        <f>AVERAGE(C3:C5)</f>
-        <v>480.51333333333332</v>
-      </c>
-      <c r="D22">
-        <f>AVERAGE(C6:C8)</f>
-        <v>433.00333333333333</v>
-      </c>
-      <c r="E22">
-        <f>AVERAGE(C9:C11)</f>
-        <v>280.80666666666667</v>
-      </c>
-      <c r="F22">
-        <f>AVERAGE(C12:C14)</f>
-        <v>425.70333333333338</v>
-      </c>
-      <c r="G22">
-        <f>AVERAGE(C15:C17)</f>
-        <v>193.89</v>
-      </c>
-      <c r="J22" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22">
-        <f>AVERAGE(K3:K5)</f>
-        <v>508.13000000000005</v>
-      </c>
-      <c r="L22">
-        <f>AVERAGE(K6:K8)</f>
-        <v>479.14000000000004</v>
-      </c>
-      <c r="M22">
-        <f>AVERAGE(K9:K11)</f>
-        <v>428.64000000000004</v>
-      </c>
-      <c r="N22">
-        <f>AVERAGE(K12:K14)</f>
-        <v>439.02</v>
-      </c>
-      <c r="O22">
-        <f>AVERAGE(K15:K17)</f>
-        <v>319.18666666666667</v>
-      </c>
-      <c r="R22" t="s">
-        <v>12</v>
-      </c>
-      <c r="S22">
-        <f>AVERAGE(S3:S5)</f>
-        <v>662.88666666666666</v>
-      </c>
-      <c r="T22">
-        <f>AVERAGE(S6:S8)</f>
-        <v>622.41999999999996</v>
-      </c>
-      <c r="U22">
-        <f>AVERAGE(S9:S11)</f>
-        <v>601.09666666666658</v>
-      </c>
-      <c r="V22">
-        <f>AVERAGE(S12:S14)</f>
-        <v>583.0866666666667</v>
-      </c>
-      <c r="W22">
-        <f>AVERAGE(S15:S17)</f>
-        <v>479.35999999999996</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>12</v>
       </c>
       <c r="AA22">
         <f>AVERAGE(AA3:AA5)</f>
-        <v>437.20000000000005</v>
-      </c>
-    </row>
-    <row r="23" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23">
-        <f>STDEV(C3:C5)</f>
-        <v>15.489510429104369</v>
-      </c>
-      <c r="D23">
-        <f>STDEV(C6:C8)</f>
-        <v>7.257026480131743</v>
-      </c>
-      <c r="E23">
-        <f>STDEV(C9:C11)</f>
-        <v>7.2692525979865108</v>
-      </c>
-      <c r="F23">
-        <f>STDEV(C12:C14)</f>
-        <v>14.735271742771959</v>
-      </c>
-      <c r="G23">
-        <f>STDEV(C15:C17)</f>
-        <v>3.0804382805049006</v>
-      </c>
-      <c r="J23" t="s">
-        <v>30</v>
-      </c>
-      <c r="K23">
-        <f>STDEV(K3:K5)</f>
-        <v>10.926522777169339</v>
-      </c>
-      <c r="L23">
-        <f>STDEV(K6:K8)</f>
-        <v>13.936671051581879</v>
-      </c>
-      <c r="M23">
-        <f>STDEV(K9:K11)</f>
-        <v>2.871288909183471</v>
-      </c>
-      <c r="N23">
-        <f>STDEV(K12:K14)</f>
-        <v>2.8492630626181232</v>
-      </c>
-      <c r="O23">
-        <f>STDEV(K15:K17)</f>
-        <v>2.9179844642035691</v>
-      </c>
-      <c r="R23" t="s">
-        <v>30</v>
-      </c>
-      <c r="S23">
-        <f>STDEV(S3:S5)</f>
-        <v>6.2892951380367617</v>
-      </c>
-      <c r="T23">
-        <f>STDEV(S6:S8)</f>
-        <v>3.9081581339551845</v>
-      </c>
-      <c r="U23">
-        <f>STDEV(S9:S11)</f>
-        <v>8.2986585261313959</v>
-      </c>
-      <c r="V23">
-        <f>STDEV(S12:S14)</f>
-        <v>3.8177261993670184</v>
-      </c>
-      <c r="W23">
-        <f>STDEV(S15:S17)</f>
-        <v>5.093564567176875</v>
-      </c>
+        <v>568.60333333333335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="Z23" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AA23">
         <f>STDEV(AA3:AA5)</f>
-        <v>0.55830099408832223</v>
-      </c>
-    </row>
-    <row r="27" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="I27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="C29">
+        <v>14.284713274452979</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="C24">
         <v>0</v>
       </c>
-      <c r="D29">
+      <c r="D24">
         <v>1</v>
       </c>
-      <c r="E29">
+      <c r="E24">
         <v>2</v>
       </c>
-      <c r="F29">
+      <c r="F24">
         <v>3</v>
       </c>
-      <c r="G29">
+      <c r="G24">
         <v>4</v>
       </c>
-      <c r="I29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B30" t="str">
-        <f>R2</f>
-        <v>Scoobi</v>
-      </c>
-      <c r="C30">
-        <f>S22</f>
-        <v>662.88666666666666</v>
-      </c>
-      <c r="D30">
-        <f>T22</f>
-        <v>622.41999999999996</v>
-      </c>
-      <c r="E30">
-        <f>U22</f>
-        <v>601.09666666666658</v>
-      </c>
-      <c r="F30">
-        <f>V22</f>
-        <v>583.0866666666667</v>
-      </c>
-      <c r="G30">
-        <f>W22</f>
-        <v>479.35999999999996</v>
-      </c>
-      <c r="I30">
-        <f>((3*C30)-(D30+E30+F30)) - (C30 -G30)</f>
-        <v>-1.4699999999998568</v>
-      </c>
-    </row>
-    <row r="31" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B31" t="str">
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>3</v>
+      </c>
+      <c r="O24">
+        <v>4</v>
+      </c>
+      <c r="P24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <f>AVERAGE(C3:C5)</f>
+        <v>532.80666666666673</v>
+      </c>
+      <c r="D25">
+        <f>AVERAGE(C6:C8)</f>
+        <v>931.09</v>
+      </c>
+      <c r="E25">
+        <f>AVERAGE(C9:C11)</f>
+        <v>846.40333333333331</v>
+      </c>
+      <c r="F25">
+        <f>AVERAGE(C12:C14)</f>
+        <v>688.32</v>
+      </c>
+      <c r="G25">
+        <f>AVERAGE(C15:C17)</f>
+        <v>818.07333333333338</v>
+      </c>
+      <c r="H25">
+        <f>AVERAGE(C18:C20)</f>
+        <v>532.80666666666673</v>
+      </c>
+      <c r="J25" t="s">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <f>AVERAGE(K3:K5)</f>
+        <v>354</v>
+      </c>
+      <c r="L25">
+        <f>AVERAGE(K6:K8)</f>
+        <v>839.7833333333333</v>
+      </c>
+      <c r="M25">
+        <f>AVERAGE(K9:K11)</f>
+        <v>697.93</v>
+      </c>
+      <c r="N25">
+        <f>AVERAGE(K12:K14)</f>
+        <v>645.11666666666667</v>
+      </c>
+      <c r="O25">
+        <f>AVERAGE(K15:K17)</f>
+        <v>635.82333333333327</v>
+      </c>
+      <c r="P25">
+        <f>AVERAGE(K18:K20)</f>
+        <v>371.42666666666668</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26">
+        <f>STDEV(C3:C5)</f>
+        <v>8.9000468163562996</v>
+      </c>
+      <c r="D26">
+        <f>STDEV(C6:C8)</f>
+        <v>20.805145998045791</v>
+      </c>
+      <c r="E26">
+        <f>STDEV(C9:C11)</f>
+        <v>21.302963017696225</v>
+      </c>
+      <c r="F26">
+        <f>STDEV(C12:C14)</f>
+        <v>8.3093140511115866</v>
+      </c>
+      <c r="G26">
+        <f>STDEV(C15:C17)</f>
+        <v>14.792620908187061</v>
+      </c>
+      <c r="H26">
+        <f>STDEV(C18:C20)</f>
+        <v>8.9000468163562996</v>
+      </c>
+      <c r="J26" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26">
+        <f>STDEV(K3:K5)</f>
+        <v>5.3021787974378762</v>
+      </c>
+      <c r="L26">
+        <f>STDEV(K6:K8)</f>
+        <v>31.841592820292981</v>
+      </c>
+      <c r="M26">
+        <f>STDEV(K9:K11)</f>
+        <v>11.921069582885583</v>
+      </c>
+      <c r="N26">
+        <f>STDEV(K12:K14)</f>
+        <v>8.4051789590307848</v>
+      </c>
+      <c r="O26">
+        <f>STDEV(K15:K17)</f>
+        <v>10.094386228658641</v>
+      </c>
+      <c r="P26">
+        <f>STDEV(K18:K20)</f>
+        <v>1.9189146237738861</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" t="str">
         <f>J2</f>
         <v>Crunch</v>
       </c>
-      <c r="C31">
-        <f>K22</f>
-        <v>508.13000000000005</v>
-      </c>
-      <c r="D31">
-        <f>L22</f>
-        <v>479.14000000000004</v>
-      </c>
-      <c r="E31">
-        <f>M22</f>
-        <v>428.64000000000004</v>
-      </c>
-      <c r="F31">
-        <f>N22</f>
-        <v>439.02</v>
-      </c>
-      <c r="G31">
-        <f>O22</f>
-        <v>319.18666666666667</v>
-      </c>
-      <c r="I31">
-        <f>((3*C31)-(D31+E31+F31)) - (C31 -G31)</f>
-        <v>-11.353333333333467</v>
-      </c>
-    </row>
-    <row r="32" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B32" t="str">
+      <c r="C34">
+        <f>K25</f>
+        <v>354</v>
+      </c>
+      <c r="D34">
+        <f>L25</f>
+        <v>839.7833333333333</v>
+      </c>
+      <c r="E34">
+        <f>M25</f>
+        <v>697.93</v>
+      </c>
+      <c r="F34">
+        <f>N25</f>
+        <v>645.11666666666667</v>
+      </c>
+      <c r="G34">
+        <f>O25</f>
+        <v>635.82333333333327</v>
+      </c>
+      <c r="H34">
+        <f>P25</f>
+        <v>371.42666666666668</v>
+      </c>
+      <c r="I34">
+        <f>((3*D34)-(E34+F34+G34)) - (D34 -H34)</f>
+        <v>72.123333333333392</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" t="str">
         <f>B2</f>
         <v>Spark</v>
       </c>
-      <c r="C32">
-        <f>C22</f>
-        <v>480.51333333333332</v>
-      </c>
-      <c r="D32">
-        <f>D22</f>
-        <v>433.00333333333333</v>
-      </c>
-      <c r="E32">
-        <f>E22</f>
-        <v>280.80666666666667</v>
-      </c>
-      <c r="F32">
-        <f>F22</f>
-        <v>425.70333333333338</v>
-      </c>
-      <c r="G32">
-        <f>G22</f>
-        <v>193.89</v>
-      </c>
-      <c r="I32">
-        <f>((3*C32)-(D32+E32+F32)) - (C32 -G32)</f>
-        <v>15.403333333333308</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="C35">
+        <f>C25</f>
+        <v>532.80666666666673</v>
+      </c>
+      <c r="D35">
+        <f>D25</f>
+        <v>931.09</v>
+      </c>
+      <c r="E35">
+        <f>E25</f>
+        <v>846.40333333333331</v>
+      </c>
+      <c r="F35">
+        <f>F25</f>
+        <v>688.32</v>
+      </c>
+      <c r="G35">
+        <f>G25</f>
+        <v>818.07333333333338</v>
+      </c>
+      <c r="H35">
+        <f>H25</f>
+        <v>532.80666666666673</v>
+      </c>
+      <c r="I35">
+        <f>((3*D35)-(E35+F35+G35)) - (D35 -H35)</f>
+        <v>42.190000000000055</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <f t="shared" ref="D35:G37" si="0">D30/$C30</f>
-        <v>0.93895386843402084</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="0"/>
-        <v>0.90678647933784551</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="0"/>
-        <v>0.87961743083282218</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="0"/>
-        <v>0.72314020496213527</v>
-      </c>
-      <c r="I35" t="str">
-        <f>CONCATENATE(ROUND(C30, 0), " s")</f>
-        <v>663 s</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="0"/>
-        <v>0.94294767087162734</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="0"/>
-        <v>0.84356365497018482</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="0"/>
-        <v>0.86399149823863963</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="0"/>
-        <v>0.62815946050551363</v>
-      </c>
-      <c r="I36" t="str">
-        <f>CONCATENATE(ROUND(C31, 0), " s")</f>
-        <v>508 s</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="0"/>
-        <v>0.90112657297057319</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="0"/>
-        <v>0.58438891740777232</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="0"/>
-        <v>0.88593448672946995</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="0"/>
-        <v>0.40350597277911121</v>
-      </c>
-      <c r="I37" t="str">
-        <f>CONCATENATE(ROUND(C32, 0), " s")</f>
-        <v>481 s</v>
+      <c r="G38" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" t="s">
+        <v>34</v>
+      </c>
+      <c r="I38" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>51</v>
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <f>D34/$C34</f>
+        <v>2.3722693032015063</v>
+      </c>
+      <c r="E39">
+        <f>E34/$C34</f>
+        <v>1.971553672316384</v>
+      </c>
+      <c r="F39">
+        <f>F34/$C34</f>
+        <v>1.8223634651600753</v>
+      </c>
+      <c r="G39">
+        <f>G34/$C34</f>
+        <v>1.796111111111111</v>
+      </c>
+      <c r="H39">
+        <f>H34/$C34</f>
+        <v>1.0492278719397363</v>
+      </c>
+      <c r="I39" t="str">
+        <f>CONCATENATE(ROUND(C34, 0), " s")</f>
+        <v>354 s</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
       <c r="D40">
-        <f t="shared" ref="D40:F40" si="1">ROUND(($C35/D35)*100, 0)</f>
-        <v>107</v>
+        <f>D35/$C35</f>
+        <v>1.7475194254326145</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
-        <v>110</v>
+        <f>E35/$C35</f>
+        <v>1.5885749677806833</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
-        <v>114</v>
+        <f>F35/$C35</f>
+        <v>1.2918757272806896</v>
       </c>
       <c r="G40">
-        <f>ROUND(($C35/G35)*100, 0)</f>
-        <v>138</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D41">
-        <f t="shared" ref="D41:G41" si="2">ROUND(($C36/D36)*100, 0)</f>
-        <v>106</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="2"/>
-        <v>119</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="2"/>
-        <v>116</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="2"/>
-        <v>159</v>
+        <f>G35/$C35</f>
+        <v>1.5354037111647751</v>
+      </c>
+      <c r="H40">
+        <f>H35/$C35</f>
+        <v>1</v>
+      </c>
+      <c r="I40" t="str">
+        <f>CONCATENATE(ROUND(C35, 0), " s")</f>
+        <v>533 s</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D42">
-        <f t="shared" ref="D42:G42" si="3">ROUND(($C37/D37)*100, 0)</f>
-        <v>111</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="3"/>
-        <v>171</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="3"/>
-        <v>113</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="3"/>
-        <v>248</v>
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <f>ROUND(($D39/D39)*100, 0)-100</f>
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <f>ROUND(($D39/E39)*100, 0)-100</f>
+        <v>20</v>
+      </c>
+      <c r="F43">
+        <f>ROUND(($D39/F39)*100, 0)-100</f>
+        <v>30</v>
+      </c>
+      <c r="G43">
+        <f>ROUND(($D39/G39)*100, 0)-100</f>
+        <v>32</v>
+      </c>
+      <c r="H43">
+        <f>ROUND(($D39/H39)*100, 0)-100</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <f>ROUND(($D40/D40)*100, 0)-100</f>
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <f>ROUND(($D40/E40)*100, 0)-100</f>
+        <v>10</v>
+      </c>
+      <c r="F44">
+        <f>ROUND(($D40/F40)*100, 0)-100</f>
+        <v>35</v>
+      </c>
+      <c r="G44">
+        <f>ROUND(($D40/G40)*100, 0)-100</f>
+        <v>14</v>
+      </c>
+      <c r="H44">
+        <f>ROUND(($D40/H40)*100, 0)-100</f>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -5276,7 +7486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W48"/>
   <sheetViews>
-    <sheetView topLeftCell="B12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
@@ -5298,7 +7508,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>138.96</v>
@@ -5313,10 +7523,10 @@
         <v>6106224</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="L4">
         <v>115.62</v>
@@ -5331,10 +7541,10 @@
         <v>2631264</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="R4" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="S4">
         <v>115.97</v>
@@ -5349,12 +7559,12 @@
         <v>2704448</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>140.12</v>
@@ -5369,10 +7579,10 @@
         <v>5670608</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="L5">
         <v>115.65</v>
@@ -5387,10 +7597,10 @@
         <v>2568224</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="R5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="S5">
         <v>116.06</v>
@@ -5405,15 +7615,15 @@
         <v>2701536</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="L6">
         <v>114.47</v>
@@ -5428,10 +7638,10 @@
         <v>2591008</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="R6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="S6">
         <v>114.23</v>
@@ -5446,26 +7656,26 @@
         <v>2709632</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <f>AVERAGE(D4:D6)</f>
         <v>139.54000000000002</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <f>AVERAGE(L4:L6)</f>
         <v>115.24666666666667</v>
       </c>
       <c r="R8" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="S8">
         <f>AVERAGE(S4:S6)</f>
@@ -5474,21 +7684,21 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D9">
         <f>STDEV(D4:D6)</f>
         <v>0.82024386617639278</v>
       </c>
       <c r="K9" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="L9">
         <f>STDEV(L4:L6)</f>
         <v>0.67278030094031305</v>
       </c>
       <c r="R9" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S9">
         <f>STDEV(S4:S6)</f>
@@ -5497,7 +7707,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>218.32</v>
@@ -5512,10 +7722,10 @@
         <v>1567760</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="L11">
         <v>116.58</v>
@@ -5530,10 +7740,10 @@
         <v>2023248</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="R11" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="S11">
         <v>109.26</v>
@@ -5548,12 +7758,12 @@
         <v>2757808</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>216.93</v>
@@ -5568,10 +7778,10 @@
         <v>1561072</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="L12">
         <v>117.94</v>
@@ -5586,10 +7796,10 @@
         <v>2034288</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="R12" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="S12">
         <v>109.26</v>
@@ -5604,15 +7814,15 @@
         <v>2757808</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="K13" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="L13">
         <v>120.26</v>
@@ -5627,10 +7837,10 @@
         <v>2032512</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="R13" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="S13">
         <v>114.16</v>
@@ -5645,26 +7855,26 @@
         <v>2872592</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <f>AVERAGE(D11:D13)</f>
         <v>217.625</v>
       </c>
       <c r="K15" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <f>AVERAGE(L11:L13)</f>
         <v>118.25999999999999</v>
       </c>
       <c r="R15" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="S15">
         <f>AVERAGE(S11:S13)</f>
@@ -5673,24 +7883,24 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D16">
         <f>STDEV(D11:D13)</f>
         <v>0.98287842584929141</v>
       </c>
       <c r="K16" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="L16">
         <f>STDEV(L11:L13)</f>
         <v>1.860752535938085</v>
       </c>
       <c r="R16" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S16">
         <f>STDEV(S11:S13)</f>
@@ -5716,7 +7926,7 @@
     </row>
     <row r="21" spans="3:23" x14ac:dyDescent="0.25">
       <c r="J21" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="K21">
         <f>D15</f>
@@ -5733,7 +7943,7 @@
     </row>
     <row r="22" spans="3:23" x14ac:dyDescent="0.25">
       <c r="J22" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="K22">
         <f>D8</f>
@@ -5750,12 +7960,12 @@
     </row>
     <row r="23" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D24">
         <v>144.61000000000001</v>
@@ -5770,19 +7980,19 @@
         <v>5741296</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D26">
         <v>141.68</v>
@@ -5797,12 +8007,12 @@
         <v>5754432</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D29">
         <v>250.21</v>
@@ -5817,12 +8027,12 @@
         <v>1593776</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D30">
         <v>232.09</v>
@@ -5837,12 +8047,12 @@
         <v>1543968</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="3:23" x14ac:dyDescent="0.25">
@@ -5878,141 +8088,140 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="13.09765625" customWidth="1"/>
+    <col min="9" max="9" width="14.19921875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="C4">
-        <f>Wordcount!$AA$22</f>
-        <v>664.72499999999991</v>
+        <f>Wordcount!K22</f>
+        <v>486.68666666666667</v>
       </c>
       <c r="D4">
-        <f>TPCH!$AA$22</f>
-        <v>437.20000000000005</v>
+        <f>TPCH!K25</f>
+        <v>354</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
+        <f>D4/D$4</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C5">
-        <f>Wordcount!G30</f>
-        <v>711.24666666666656</v>
+        <f>Wordcount!$AA$22</f>
+        <v>1166.335</v>
       </c>
       <c r="D5">
-        <f>TPCH!G30</f>
-        <v>479.35999999999996</v>
+        <f>TPCH!$AA$22</f>
+        <v>568.60333333333335</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:I7" si="0">C5/C$4</f>
-        <v>1.0699863352012737</v>
+        <f>C5/C$4</f>
+        <v>2.3964802816322619</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
-        <v>1.0964318389752972</v>
+        <f>D5/D$4</f>
+        <v>1.6062241054613937</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <f>Wordcount!G31</f>
-        <v>384.32666666666665</v>
+        <f>Wordcount!H30</f>
+        <v>707.37</v>
       </c>
       <c r="D6">
-        <f>TPCH!G31</f>
-        <v>319.18666666666667</v>
+        <f>TPCH!P25</f>
+        <v>371.42666666666668</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
-        <v>0.57817393157571428</v>
+        <f>C6/C$4</f>
+        <v>1.4534402695779625</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
-        <v>0.73007014333638298</v>
+        <f>D6/D$4</f>
+        <v>1.0492278719397363</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <f>Wordcount!G32</f>
-        <v>122.46333333333332</v>
+        <f>Wordcount!H31</f>
+        <v>186.89666666666668</v>
       </c>
       <c r="D7">
-        <f>TPCH!G32</f>
-        <v>193.89</v>
+        <f>TPCH!H25</f>
+        <v>532.80666666666673</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
-        <v>0.18423157446061655</v>
+        <f>C7/C$4</f>
+        <v>0.3840184649945893</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
-        <v>0.44348124428179314</v>
+        <f>D7/D$4</f>
+        <v>1.5051035781544257</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" t="str">
         <f>CONCATENATE(ROUND(C4,0), " s")</f>
-        <v>665 s</v>
+        <v>487 s</v>
       </c>
       <c r="D8" t="str">
         <f>CONCATENATE(ROUND(D4,0), " s")</f>
-        <v>437 s</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H9">
-        <f>1/H6</f>
-        <v>1.7295833405609811</v>
+        <v>354 s</v>
       </c>
     </row>
   </sheetData>

--- a/bigdata2012_results.xlsx
+++ b/bigdata2012_results.xlsx
@@ -385,8 +385,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.1941960426038189E-3"/>
-                  <c:y val="6.0513269174686498E-3"/>
+                  <c:x val="-1.2286031863653223E-2"/>
+                  <c:y val="6.0512738519104695E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -771,11 +771,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="67888640"/>
-        <c:axId val="98931776"/>
+        <c:axId val="108093440"/>
+        <c:axId val="89025344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67888640"/>
+        <c:axId val="108093440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -794,7 +794,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98931776"/>
+        <c:crossAx val="89025344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -802,7 +802,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98931776"/>
+        <c:axId val="89025344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -842,7 +842,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67888640"/>
+        <c:crossAx val="108093440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1320,11 +1320,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="112828416"/>
-        <c:axId val="98934080"/>
+        <c:axId val="108132864"/>
+        <c:axId val="98929472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="112828416"/>
+        <c:axId val="108132864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1344,7 +1344,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98934080"/>
+        <c:crossAx val="98929472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1352,7 +1352,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98934080"/>
+        <c:axId val="98929472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1395,7 +1395,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112828416"/>
+        <c:crossAx val="108132864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1587,11 +1587,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="108130304"/>
-        <c:axId val="111658688"/>
+        <c:axId val="57313280"/>
+        <c:axId val="98932352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="108130304"/>
+        <c:axId val="57313280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1614,7 +1614,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1631,7 +1630,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111658688"/>
+        <c:crossAx val="98932352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1639,7 +1638,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111658688"/>
+        <c:axId val="98932352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1665,7 +1664,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1682,14 +1680,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108130304"/>
+        <c:crossAx val="57313280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2031,11 +2028,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="112829952"/>
-        <c:axId val="111660992"/>
+        <c:axId val="108133376"/>
+        <c:axId val="111657536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="112829952"/>
+        <c:axId val="108133376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2054,7 +2051,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111660992"/>
+        <c:crossAx val="111657536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2062,7 +2059,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111660992"/>
+        <c:axId val="111657536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2102,7 +2099,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112829952"/>
+        <c:crossAx val="108133376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2585,16 +2582,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH188"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A123" sqref="A123"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="7" width="8.59765625" customWidth="1"/>
-    <col min="8" max="8" width="25.19921875" customWidth="1"/>
-    <col min="9" max="22" width="8.59765625" customWidth="1"/>
+    <col min="2" max="4" width="8.59765625" customWidth="1"/>
+    <col min="5" max="5" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="22" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="24.6" x14ac:dyDescent="0.4">
@@ -3867,27 +3868,27 @@
         <v>Crunch</v>
       </c>
       <c r="C30">
-        <f>K22</f>
+        <f t="shared" ref="C30:H30" si="0">K22</f>
         <v>486.68666666666667</v>
       </c>
       <c r="D30">
-        <f>L22</f>
+        <f t="shared" si="0"/>
         <v>987.25</v>
       </c>
       <c r="E30">
-        <f>M22</f>
+        <f t="shared" si="0"/>
         <v>993.61999999999989</v>
       </c>
       <c r="F30">
-        <f>N22</f>
+        <f t="shared" si="0"/>
         <v>826.66666666666663</v>
       </c>
       <c r="G30">
-        <f>O22</f>
+        <f t="shared" si="0"/>
         <v>749.33333333333337</v>
       </c>
       <c r="H30">
-        <f>P22</f>
+        <f t="shared" si="0"/>
         <v>707.37</v>
       </c>
     </row>
@@ -3897,27 +3898,27 @@
         <v>Spark</v>
       </c>
       <c r="C31">
-        <f>C22</f>
+        <f t="shared" ref="C31:H31" si="1">C22</f>
         <v>186.89666666666668</v>
       </c>
       <c r="D31">
-        <f>D22</f>
+        <f t="shared" si="1"/>
         <v>453.60999999999996</v>
       </c>
       <c r="E31">
-        <f>E22</f>
+        <f t="shared" si="1"/>
         <v>423.65333333333336</v>
       </c>
       <c r="F31">
-        <f>F22</f>
+        <f t="shared" si="1"/>
         <v>280.93333333333334</v>
       </c>
       <c r="G31">
-        <f>G22</f>
+        <f t="shared" si="1"/>
         <v>245.05333333333331</v>
       </c>
       <c r="H31">
-        <f>H22</f>
+        <f t="shared" si="1"/>
         <v>186.89666666666668</v>
       </c>
     </row>
@@ -3955,23 +3956,23 @@
         <v>1</v>
       </c>
       <c r="D35">
-        <f>D30/$C30</f>
+        <f t="shared" ref="D35:H36" si="2">D30/$C30</f>
         <v>2.0285125268824569</v>
       </c>
       <c r="E35">
-        <f>E30/$C30</f>
+        <f t="shared" si="2"/>
         <v>2.0416010300946534</v>
       </c>
       <c r="F35">
-        <f>F30/$C30</f>
+        <f t="shared" si="2"/>
         <v>1.6985603331369943</v>
       </c>
       <c r="G35">
-        <f>G30/$C30</f>
+        <f t="shared" si="2"/>
         <v>1.5396627535854692</v>
       </c>
       <c r="H35">
-        <f>H30/$C30</f>
+        <f t="shared" si="2"/>
         <v>1.4534402695779625</v>
       </c>
       <c r="I35" t="str">
@@ -3988,23 +3989,23 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <f>D31/$C31</f>
+        <f t="shared" si="2"/>
         <v>2.4270630829870337</v>
       </c>
       <c r="E36">
-        <f>E31/$C31</f>
+        <f t="shared" si="2"/>
         <v>2.2667784337156003</v>
       </c>
       <c r="F36">
-        <f>F31/$C31</f>
+        <f t="shared" si="2"/>
         <v>1.5031479070431075</v>
       </c>
       <c r="G36">
-        <f>G31/$C31</f>
+        <f t="shared" si="2"/>
         <v>1.3111701653320014</v>
       </c>
       <c r="H36">
-        <f>H31/$C31</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I36" t="str">
@@ -4022,15 +4023,15 @@
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E40">
-        <f>ROUND(($D35/E35)*100, 0)-100</f>
+        <f t="shared" ref="E40:H41" si="3">ROUND(($D35/E35)*100, 0)-100</f>
         <v>-1</v>
       </c>
       <c r="F40">
-        <f>ROUND(($D35/F35)*100, 0)-100</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="G40">
-        <f>ROUND(($D35/G35)*100, 0)-100</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="H40">
@@ -4040,15 +4041,15 @@
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E41">
-        <f>ROUND(($D36/E36)*100, 0)-100</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="F41">
-        <f>ROUND(($D36/F36)*100, 0)-100</f>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="G41">
-        <f>ROUND(($D36/G36)*100, 0)-100</f>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="H41">
@@ -6124,8 +6125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7271,27 +7272,27 @@
         <v>Crunch</v>
       </c>
       <c r="C34">
-        <f>K25</f>
+        <f t="shared" ref="C34:H34" si="0">K25</f>
         <v>354</v>
       </c>
       <c r="D34">
-        <f>L25</f>
+        <f t="shared" si="0"/>
         <v>839.7833333333333</v>
       </c>
       <c r="E34">
-        <f>M25</f>
+        <f t="shared" si="0"/>
         <v>697.93</v>
       </c>
       <c r="F34">
-        <f>N25</f>
+        <f t="shared" si="0"/>
         <v>645.11666666666667</v>
       </c>
       <c r="G34">
-        <f>O25</f>
+        <f t="shared" si="0"/>
         <v>635.82333333333327</v>
       </c>
       <c r="H34">
-        <f>P25</f>
+        <f t="shared" si="0"/>
         <v>371.42666666666668</v>
       </c>
       <c r="I34">
@@ -7305,27 +7306,27 @@
         <v>Spark</v>
       </c>
       <c r="C35">
-        <f>C25</f>
+        <f t="shared" ref="C35:H35" si="1">C25</f>
         <v>532.80666666666673</v>
       </c>
       <c r="D35">
-        <f>D25</f>
+        <f t="shared" si="1"/>
         <v>931.09</v>
       </c>
       <c r="E35">
-        <f>E25</f>
+        <f t="shared" si="1"/>
         <v>846.40333333333331</v>
       </c>
       <c r="F35">
-        <f>F25</f>
+        <f t="shared" si="1"/>
         <v>688.32</v>
       </c>
       <c r="G35">
-        <f>G25</f>
+        <f t="shared" si="1"/>
         <v>818.07333333333338</v>
       </c>
       <c r="H35">
-        <f>H25</f>
+        <f t="shared" si="1"/>
         <v>532.80666666666673</v>
       </c>
       <c r="I35">
@@ -7364,23 +7365,23 @@
         <v>1</v>
       </c>
       <c r="D39">
-        <f>D34/$C34</f>
+        <f t="shared" ref="D39:H40" si="2">D34/$C34</f>
         <v>2.3722693032015063</v>
       </c>
       <c r="E39">
-        <f>E34/$C34</f>
+        <f t="shared" si="2"/>
         <v>1.971553672316384</v>
       </c>
       <c r="F39">
-        <f>F34/$C34</f>
+        <f t="shared" si="2"/>
         <v>1.8223634651600753</v>
       </c>
       <c r="G39">
-        <f>G34/$C34</f>
+        <f t="shared" si="2"/>
         <v>1.796111111111111</v>
       </c>
       <c r="H39">
-        <f>H34/$C34</f>
+        <f t="shared" si="2"/>
         <v>1.0492278719397363</v>
       </c>
       <c r="I39" t="str">
@@ -7396,23 +7397,23 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <f>D35/$C35</f>
+        <f t="shared" si="2"/>
         <v>1.7475194254326145</v>
       </c>
       <c r="E40">
-        <f>E35/$C35</f>
+        <f t="shared" si="2"/>
         <v>1.5885749677806833</v>
       </c>
       <c r="F40">
-        <f>F35/$C35</f>
+        <f t="shared" si="2"/>
         <v>1.2918757272806896</v>
       </c>
       <c r="G40">
-        <f>G35/$C35</f>
+        <f t="shared" si="2"/>
         <v>1.5354037111647751</v>
       </c>
       <c r="H40">
-        <f>H35/$C35</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I40" t="str">
@@ -7427,45 +7428,45 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D43">
-        <f>ROUND(($D39/D39)*100, 0)-100</f>
+        <f t="shared" ref="D43:H44" si="3">ROUND(($D39/D39)*100, 0)-100</f>
         <v>0</v>
       </c>
       <c r="E43">
-        <f>ROUND(($D39/E39)*100, 0)-100</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="F43">
-        <f>ROUND(($D39/F39)*100, 0)-100</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="G43">
-        <f>ROUND(($D39/G39)*100, 0)-100</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="H43">
-        <f>ROUND(($D39/H39)*100, 0)-100</f>
+        <f t="shared" si="3"/>
         <v>126</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D44">
-        <f>ROUND(($D40/D40)*100, 0)-100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E44">
-        <f>ROUND(($D40/E40)*100, 0)-100</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="F44">
-        <f>ROUND(($D40/F40)*100, 0)-100</f>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="G44">
-        <f>ROUND(($D40/G40)*100, 0)-100</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="H44">
-        <f>ROUND(($D40/H40)*100, 0)-100</f>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
     </row>
@@ -8088,10 +8089,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8224,6 +8225,26 @@
         <v>354 s</v>
       </c>
     </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <f>ROUND(($H5/H6)*100, 0)-100</f>
+        <v>65</v>
+      </c>
+      <c r="I14">
+        <f>ROUND(($I5/I6)*100, 0)-100</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <f>ROUND(($H5/H7)*100, 0)-100</f>
+        <v>524</v>
+      </c>
+      <c r="I15">
+        <f>ROUND(($I5/I7)*100, 0)-100</f>
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
